--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\CTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ABFF41D-11F2-40FD-AD7D-220B5125CDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285F566-5ECE-4434-9A88-9D475AD3AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="64">
   <si>
     <t>K</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>SWITCH FROM YARD (Yard-63)</t>
+  </si>
+  <si>
+    <t>yard --&gt; pioneer</t>
+  </si>
+  <si>
+    <t>pioneer --&gt; yard</t>
+  </si>
+  <si>
+    <t>block before</t>
+  </si>
+  <si>
+    <t>including station</t>
+  </si>
+  <si>
+    <t>perfect situation</t>
   </si>
 </sst>
 </file>
@@ -267,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +303,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +673,12 @@
     <col min="6" max="6" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.33203125" style="7"/>
+    <col min="9" max="9" width="10.33203125" style="7"/>
+    <col min="10" max="10" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -681,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -691,7 +714,7 @@
       <c r="C2" s="4">
         <v>62</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>50</v>
       </c>
       <c r="E2" s="3">
@@ -702,11 +725,11 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
-        <f>D2*(1/(E2*1000/(60*60)))</f>
+        <f t="shared" ref="H2:H33" si="0">D2*(1/(E2*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -716,7 +739,7 @@
       <c r="C3" s="3">
         <v>63</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>100</v>
       </c>
       <c r="E3" s="3">
@@ -725,11 +748,20 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6">
-        <f>D3*(1/(E3*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -739,7 +771,7 @@
       <c r="C4" s="3">
         <v>64</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="8">
         <v>100</v>
       </c>
       <c r="E4" s="3">
@@ -748,11 +780,26 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="6">
-        <f>D4*(1/(E4*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SUM(D2:D125) + (D126/2 + 13)</f>
+        <v>15465.6</v>
+      </c>
+      <c r="L4" s="9">
+        <f>SUM(D2:D125)</f>
+        <v>15402.6</v>
+      </c>
+      <c r="M4" s="9">
+        <f>SUM(D2:D126) + (D127/2) + 13</f>
+        <v>15565.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -762,7 +809,7 @@
       <c r="C5" s="4">
         <v>65</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>200</v>
       </c>
       <c r="E5" s="3">
@@ -775,11 +822,18 @@
         <v>2</v>
       </c>
       <c r="H5" s="6">
-        <f>D5*(1/(E5*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(D126/2 - 13) + SUM(D127:D173)</f>
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -789,7 +843,7 @@
       <c r="C6" s="3">
         <v>66</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <v>200</v>
       </c>
       <c r="E6" s="3">
@@ -798,11 +852,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6">
-        <f>D6*(1/(E6*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -812,7 +866,7 @@
       <c r="C7" s="3">
         <v>67</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <v>100</v>
       </c>
       <c r="E7" s="3">
@@ -821,11 +875,11 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6">
-        <f>D7*(1/(E7*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -835,7 +889,7 @@
       <c r="C8" s="4">
         <v>68</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>100</v>
       </c>
       <c r="E8" s="3">
@@ -844,11 +898,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6">
-        <f>D8*(1/(E8*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -858,7 +912,7 @@
       <c r="C9" s="3">
         <v>69</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>100</v>
       </c>
       <c r="E9" s="3">
@@ -867,11 +921,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6">
-        <f>D9*(1/(E9*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -881,7 +935,7 @@
       <c r="C10" s="3">
         <v>70</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <v>100</v>
       </c>
       <c r="E10" s="3">
@@ -890,11 +944,11 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6">
-        <f>D10*(1/(E10*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -904,7 +958,7 @@
       <c r="C11" s="4">
         <v>71</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="8">
         <v>100</v>
       </c>
       <c r="E11" s="3">
@@ -913,11 +967,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6">
-        <f>D11*(1/(E11*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -927,7 +981,7 @@
       <c r="C12" s="3">
         <v>72</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>100</v>
       </c>
       <c r="E12" s="3">
@@ -936,11 +990,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6">
-        <f>D12*(1/(E12*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -950,7 +1004,7 @@
       <c r="C13" s="3">
         <v>73</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>100</v>
       </c>
       <c r="E13" s="3">
@@ -963,11 +1017,11 @@
         <v>2</v>
       </c>
       <c r="H13" s="6">
-        <f>D13*(1/(E13*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -977,7 +1031,7 @@
       <c r="C14" s="4">
         <v>74</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="8">
         <v>100</v>
       </c>
       <c r="E14" s="3">
@@ -986,11 +1040,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6">
-        <f>D14*(1/(E14*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1000,7 +1054,7 @@
       <c r="C15" s="3">
         <v>75</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <v>100</v>
       </c>
       <c r="E15" s="3">
@@ -1009,11 +1063,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6">
-        <f>D15*(1/(E15*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1077,7 @@
       <c r="C16" s="3">
         <v>76</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="8">
         <v>100</v>
       </c>
       <c r="E16" s="3">
@@ -1034,7 +1088,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="6">
-        <f>D16*(1/(E16*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1048,7 +1102,7 @@
       <c r="C17" s="3">
         <v>77</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="8">
         <v>300</v>
       </c>
       <c r="E17" s="3">
@@ -1061,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="6">
-        <f>D17*(1/(E17*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1075,7 +1129,7 @@
       <c r="C18" s="4">
         <v>78</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="8">
         <v>300</v>
       </c>
       <c r="E18" s="3">
@@ -1084,7 +1138,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6">
-        <f>D18*(1/(E18*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1098,7 +1152,7 @@
       <c r="C19" s="3">
         <v>79</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="8">
         <v>300</v>
       </c>
       <c r="E19" s="3">
@@ -1107,7 +1161,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6">
-        <f>D19*(1/(E19*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1121,7 +1175,7 @@
       <c r="C20" s="3">
         <v>80</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <v>300</v>
       </c>
       <c r="E20" s="3">
@@ -1130,7 +1184,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6">
-        <f>D20*(1/(E20*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1144,7 +1198,7 @@
       <c r="C21" s="3">
         <v>81</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <v>300</v>
       </c>
       <c r="E21" s="3">
@@ -1153,7 +1207,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6">
-        <f>D21*(1/(E21*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1167,7 +1221,7 @@
       <c r="C22" s="4">
         <v>82</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="8">
         <v>300</v>
       </c>
       <c r="E22" s="3">
@@ -1176,7 +1230,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6">
-        <f>D22*(1/(E22*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1190,7 +1244,7 @@
       <c r="C23" s="3">
         <v>83</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="8">
         <v>300</v>
       </c>
       <c r="E23" s="3">
@@ -1199,7 +1253,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6">
-        <f>D23*(1/(E23*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1213,7 +1267,7 @@
       <c r="C24" s="3">
         <v>84</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="8">
         <v>300</v>
       </c>
       <c r="E24" s="3">
@@ -1222,7 +1276,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6">
-        <f>D24*(1/(E24*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1236,7 +1290,7 @@
       <c r="C25" s="3">
         <v>85</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="8">
         <v>300</v>
       </c>
       <c r="E25" s="3">
@@ -1247,7 +1301,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="6">
-        <f>D25*(1/(E25*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1261,7 +1315,7 @@
       <c r="C26" s="4">
         <v>86</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="8">
         <v>100</v>
       </c>
       <c r="E26" s="3">
@@ -1270,7 +1324,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6">
-        <f>D26*(1/(E26*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
     </row>
@@ -1284,7 +1338,7 @@
       <c r="C27" s="3">
         <v>87</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="8">
         <v>86.6</v>
       </c>
       <c r="E27" s="3">
@@ -1293,7 +1347,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6">
-        <f>D27*(1/(E27*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>12.470399999999998</v>
       </c>
     </row>
@@ -1307,7 +1361,7 @@
       <c r="C28" s="3">
         <v>88</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="8">
         <v>100</v>
       </c>
       <c r="E28" s="3">
@@ -1320,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="H28" s="6">
-        <f>D28*(1/(E28*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
     </row>
@@ -1334,7 +1388,7 @@
       <c r="C29" s="3">
         <v>89</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="8">
         <v>75</v>
       </c>
       <c r="E29" s="3">
@@ -1343,7 +1397,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6">
-        <f>D29*(1/(E29*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1357,7 +1411,7 @@
       <c r="C30" s="4">
         <v>90</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="8">
         <v>75</v>
       </c>
       <c r="E30" s="3">
@@ -1366,7 +1420,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6">
-        <f>D30*(1/(E30*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1380,7 +1434,7 @@
       <c r="C31" s="3">
         <v>91</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="8">
         <v>75</v>
       </c>
       <c r="E31" s="3">
@@ -1389,7 +1443,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6">
-        <f>D31*(1/(E31*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1403,7 +1457,7 @@
       <c r="C32" s="3">
         <v>92</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="8">
         <v>75</v>
       </c>
       <c r="E32" s="3">
@@ -1412,7 +1466,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6">
-        <f>D32*(1/(E32*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1426,7 +1480,7 @@
       <c r="C33" s="3">
         <v>93</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="8">
         <v>75</v>
       </c>
       <c r="E33" s="3">
@@ -1435,7 +1489,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6">
-        <f>D33*(1/(E33*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1449,7 +1503,7 @@
       <c r="C34" s="4">
         <v>94</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="8">
         <v>75</v>
       </c>
       <c r="E34" s="3">
@@ -1458,7 +1512,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6">
-        <f>D34*(1/(E34*1000/(60*60)))</f>
+        <f t="shared" ref="H34:H65" si="1">D34*(1/(E34*1000/(60*60)))</f>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1472,7 +1526,7 @@
       <c r="C35" s="3">
         <v>95</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="8">
         <v>75</v>
       </c>
       <c r="E35" s="3">
@@ -1481,7 +1535,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6">
-        <f>D35*(1/(E35*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1495,7 +1549,7 @@
       <c r="C36" s="3">
         <v>96</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="8">
         <v>75</v>
       </c>
       <c r="E36" s="3">
@@ -1508,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="H36" s="6">
-        <f>D36*(1/(E36*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1522,7 +1576,7 @@
       <c r="C37" s="3">
         <v>97</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="8">
         <v>75</v>
       </c>
       <c r="E37" s="3">
@@ -1531,7 +1585,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="6">
-        <f>D37*(1/(E37*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1545,7 +1599,7 @@
       <c r="C38" s="4">
         <v>98</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="8">
         <v>75</v>
       </c>
       <c r="E38" s="3">
@@ -1554,7 +1608,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6">
-        <f>D38*(1/(E38*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1568,7 +1622,7 @@
       <c r="C39" s="3">
         <v>99</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="8">
         <v>75</v>
       </c>
       <c r="E39" s="3">
@@ -1577,7 +1631,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6">
-        <f>D39*(1/(E39*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1591,7 +1645,7 @@
       <c r="C40" s="3">
         <v>100</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="8">
         <v>75</v>
       </c>
       <c r="E40" s="3">
@@ -1600,7 +1654,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6">
-        <f>D40*(1/(E40*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1614,7 +1668,7 @@
       <c r="C41" s="3">
         <v>85</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="8">
         <v>300</v>
       </c>
       <c r="E41" s="3">
@@ -1625,7 +1679,7 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="6">
-        <f>D41*(1/(E41*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1639,7 +1693,7 @@
       <c r="C42" s="3">
         <v>84</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="8">
         <v>300</v>
       </c>
       <c r="E42" s="3">
@@ -1648,7 +1702,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="6">
-        <f>D42*(1/(E42*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1662,7 +1716,7 @@
       <c r="C43" s="3">
         <v>83</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="8">
         <v>300</v>
       </c>
       <c r="E43" s="3">
@@ -1671,7 +1725,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6">
-        <f>D43*(1/(E43*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1685,7 +1739,7 @@
       <c r="C44" s="4">
         <v>82</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="8">
         <v>300</v>
       </c>
       <c r="E44" s="3">
@@ -1694,7 +1748,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="6">
-        <f>D44*(1/(E44*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1708,7 +1762,7 @@
       <c r="C45" s="3">
         <v>81</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="8">
         <v>300</v>
       </c>
       <c r="E45" s="3">
@@ -1717,7 +1771,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6">
-        <f>D45*(1/(E45*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1731,7 +1785,7 @@
       <c r="C46" s="3">
         <v>80</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="8">
         <v>300</v>
       </c>
       <c r="E46" s="3">
@@ -1740,7 +1794,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="6">
-        <f>D46*(1/(E46*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1754,7 +1808,7 @@
       <c r="C47" s="3">
         <v>79</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="8">
         <v>300</v>
       </c>
       <c r="E47" s="3">
@@ -1763,7 +1817,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="6">
-        <f>D47*(1/(E47*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1777,7 +1831,7 @@
       <c r="C48" s="4">
         <v>78</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="8">
         <v>300</v>
       </c>
       <c r="E48" s="3">
@@ -1786,7 +1840,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="6">
-        <f>D48*(1/(E48*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1800,7 +1854,7 @@
       <c r="C49" s="3">
         <v>77</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="8">
         <v>300</v>
       </c>
       <c r="E49" s="3">
@@ -1813,7 +1867,7 @@
         <v>17</v>
       </c>
       <c r="H49" s="6">
-        <f>D49*(1/(E49*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -1827,7 +1881,7 @@
       <c r="C50" s="3">
         <v>101</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="8">
         <v>35</v>
       </c>
       <c r="E50" s="3">
@@ -1836,7 +1890,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="6">
-        <f>D50*(1/(E50*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>4.8461538461538467</v>
       </c>
     </row>
@@ -1850,7 +1904,7 @@
       <c r="C51" s="4">
         <v>102</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="8">
         <v>100</v>
       </c>
       <c r="E51" s="3">
@@ -1859,7 +1913,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6">
-        <f>D51*(1/(E51*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
@@ -1873,7 +1927,7 @@
       <c r="C52" s="3">
         <v>103</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="8">
         <v>100</v>
       </c>
       <c r="E52" s="3">
@@ -1882,7 +1936,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="6">
-        <f>D52*(1/(E52*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
@@ -1896,7 +1950,7 @@
       <c r="C53" s="3">
         <v>104</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="8">
         <v>80</v>
       </c>
       <c r="E53" s="3">
@@ -1905,7 +1959,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="6">
-        <f>D53*(1/(E53*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.285714285714286</v>
       </c>
     </row>
@@ -1919,7 +1973,7 @@
       <c r="C54" s="3">
         <v>105</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="8">
         <v>100</v>
       </c>
       <c r="E54" s="3">
@@ -1932,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="6">
-        <f>D54*(1/(E54*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
@@ -1946,7 +2000,7 @@
       <c r="C55" s="4">
         <v>106</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="8">
         <v>100</v>
       </c>
       <c r="E55" s="3">
@@ -1955,7 +2009,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="6">
-        <f>D55*(1/(E55*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
@@ -1969,7 +2023,7 @@
       <c r="C56" s="3">
         <v>107</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="8">
         <v>90</v>
       </c>
       <c r="E56" s="3">
@@ -1978,7 +2032,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="6">
-        <f>D56*(1/(E56*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>11.571428571428573</v>
       </c>
     </row>
@@ -1992,7 +2046,7 @@
       <c r="C57" s="3">
         <v>108</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="8">
         <v>100</v>
       </c>
       <c r="E57" s="3">
@@ -2003,7 +2057,7 @@
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="6">
-        <f>D57*(1/(E57*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
@@ -2017,7 +2071,7 @@
       <c r="C58" s="3">
         <v>109</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="8">
         <v>100</v>
       </c>
       <c r="E58" s="3">
@@ -2026,7 +2080,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="6">
-        <f>D58*(1/(E58*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
@@ -2040,7 +2094,7 @@
       <c r="C59" s="4">
         <v>110</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="8">
         <v>100</v>
       </c>
       <c r="E59" s="3">
@@ -2049,7 +2103,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="6">
-        <f>D59*(1/(E59*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2063,7 +2117,7 @@
       <c r="C60" s="3">
         <v>111</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="8">
         <v>100</v>
       </c>
       <c r="E60" s="3">
@@ -2072,7 +2126,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="6">
-        <f>D60*(1/(E60*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2086,7 +2140,7 @@
       <c r="C61" s="3">
         <v>112</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="8">
         <v>100</v>
       </c>
       <c r="E61" s="3">
@@ -2095,7 +2149,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="6">
-        <f>D61*(1/(E61*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2109,7 +2163,7 @@
       <c r="C62" s="3">
         <v>113</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="8">
         <v>100</v>
       </c>
       <c r="E62" s="3">
@@ -2118,7 +2172,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="6">
-        <f>D62*(1/(E62*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2132,7 +2186,7 @@
       <c r="C63" s="4">
         <v>114</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="8">
         <f>100+62</f>
         <v>162</v>
       </c>
@@ -2146,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="6">
-        <f>D63*(1/(E63*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>19.439999999999998</v>
       </c>
     </row>
@@ -2160,7 +2214,7 @@
       <c r="C64" s="3">
         <v>115</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="8">
         <v>100</v>
       </c>
       <c r="E64" s="3">
@@ -2169,7 +2223,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="6">
-        <f>D64*(1/(E64*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2183,7 +2237,7 @@
       <c r="C65" s="3">
         <v>116</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="8">
         <v>100</v>
       </c>
       <c r="E65" s="3">
@@ -2192,7 +2246,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="6">
-        <f>D65*(1/(E65*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2206,7 +2260,7 @@
       <c r="C66" s="3">
         <v>117</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="8">
         <v>50</v>
       </c>
       <c r="E66" s="3">
@@ -2215,7 +2269,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="6">
-        <f>D66*(1/(E66*1000/(60*60)))</f>
+        <f t="shared" ref="H66:H97" si="2">D66*(1/(E66*1000/(60*60)))</f>
         <v>12</v>
       </c>
     </row>
@@ -2229,7 +2283,7 @@
       <c r="C67" s="4">
         <v>118</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="8">
         <v>50</v>
       </c>
       <c r="E67" s="3">
@@ -2238,7 +2292,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6">
-        <f>D67*(1/(E67*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -2252,7 +2306,7 @@
       <c r="C68" s="3">
         <v>119</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="8">
         <v>40</v>
       </c>
       <c r="E68" s="3">
@@ -2261,7 +2315,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="6">
-        <f>D68*(1/(E68*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
@@ -2275,7 +2329,7 @@
       <c r="C69" s="3">
         <v>120</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="8">
         <v>50</v>
       </c>
       <c r="E69" s="3">
@@ -2284,7 +2338,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="6">
-        <f>D69*(1/(E69*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -2298,7 +2352,7 @@
       <c r="C70" s="3">
         <v>121</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="8">
         <v>50</v>
       </c>
       <c r="E70" s="3">
@@ -2307,7 +2361,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="6">
-        <f>D70*(1/(E70*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -2321,7 +2375,7 @@
       <c r="C71" s="4">
         <v>122</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="8">
         <v>50</v>
       </c>
       <c r="E71" s="3">
@@ -2332,7 +2386,7 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="6">
-        <f>D71*(1/(E71*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2346,7 +2400,7 @@
       <c r="C72" s="3">
         <v>123</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="8">
         <v>50</v>
       </c>
       <c r="E72" s="3">
@@ -2359,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <f>D72*(1/(E72*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2373,7 +2427,7 @@
       <c r="C73" s="3">
         <v>124</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="8">
         <v>50</v>
       </c>
       <c r="E73" s="3">
@@ -2384,7 +2438,7 @@
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="6">
-        <f>D73*(1/(E73*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2398,7 +2452,7 @@
       <c r="C74" s="3">
         <v>125</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="8">
         <v>50</v>
       </c>
       <c r="E74" s="3">
@@ -2409,7 +2463,7 @@
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="6">
-        <f>D74*(1/(E74*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2423,7 +2477,7 @@
       <c r="C75" s="4">
         <v>126</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="8">
         <v>50</v>
       </c>
       <c r="E75" s="3">
@@ -2434,7 +2488,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="6">
-        <f>D75*(1/(E75*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2448,7 +2502,7 @@
       <c r="C76" s="3">
         <v>127</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="8">
         <v>50</v>
       </c>
       <c r="E76" s="3">
@@ -2459,7 +2513,7 @@
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="6">
-        <f>D76*(1/(E76*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2473,7 +2527,7 @@
       <c r="C77" s="3">
         <v>128</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="8">
         <v>50</v>
       </c>
       <c r="E77" s="3">
@@ -2484,7 +2538,7 @@
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="6">
-        <f>D77*(1/(E77*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2498,7 +2552,7 @@
       <c r="C78" s="3">
         <v>129</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="8">
         <v>50</v>
       </c>
       <c r="E78" s="3">
@@ -2509,7 +2563,7 @@
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="6">
-        <f>D78*(1/(E78*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2523,7 +2577,7 @@
       <c r="C79" s="4">
         <v>130</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="8">
         <v>50</v>
       </c>
       <c r="E79" s="3">
@@ -2534,7 +2588,7 @@
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="6">
-        <f>D79*(1/(E79*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2548,7 +2602,7 @@
       <c r="C80" s="3">
         <v>131</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="8">
         <v>50</v>
       </c>
       <c r="E80" s="3">
@@ -2559,7 +2613,7 @@
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="6">
-        <f>D80*(1/(E80*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2573,7 +2627,7 @@
       <c r="C81" s="3">
         <v>132</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="8">
         <v>50</v>
       </c>
       <c r="E81" s="3">
@@ -2586,7 +2640,7 @@
         <v>21</v>
       </c>
       <c r="H81" s="6">
-        <f>D81*(1/(E81*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2600,7 +2654,7 @@
       <c r="C82" s="3">
         <v>133</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="8">
         <v>50</v>
       </c>
       <c r="E82" s="3">
@@ -2611,7 +2665,7 @@
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="6">
-        <f>D82*(1/(E82*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2625,7 +2679,7 @@
       <c r="C83" s="4">
         <v>134</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="8">
         <v>50</v>
       </c>
       <c r="E83" s="3">
@@ -2636,7 +2690,7 @@
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="6">
-        <f>D83*(1/(E83*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2650,7 +2704,7 @@
       <c r="C84" s="3">
         <v>135</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="8">
         <v>50</v>
       </c>
       <c r="E84" s="3">
@@ -2661,7 +2715,7 @@
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="6">
-        <f>D84*(1/(E84*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2675,7 +2729,7 @@
       <c r="C85" s="3">
         <v>136</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="8">
         <v>50</v>
       </c>
       <c r="E85" s="3">
@@ -2686,7 +2740,7 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="6">
-        <f>D85*(1/(E85*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2700,7 +2754,7 @@
       <c r="C86" s="3">
         <v>137</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="8">
         <v>50</v>
       </c>
       <c r="E86" s="3">
@@ -2711,7 +2765,7 @@
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="6">
-        <f>D86*(1/(E86*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2725,7 +2779,7 @@
       <c r="C87" s="4">
         <v>138</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="8">
         <v>50</v>
       </c>
       <c r="E87" s="3">
@@ -2736,7 +2790,7 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="6">
-        <f>D87*(1/(E87*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2750,7 +2804,7 @@
       <c r="C88" s="3">
         <v>139</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="8">
         <v>50</v>
       </c>
       <c r="E88" s="3">
@@ -2761,7 +2815,7 @@
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="6">
-        <f>D88*(1/(E88*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2775,7 +2829,7 @@
       <c r="C89" s="3">
         <v>140</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="8">
         <v>50</v>
       </c>
       <c r="E89" s="3">
@@ -2786,7 +2840,7 @@
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="6">
-        <f>D89*(1/(E89*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2800,7 +2854,7 @@
       <c r="C90" s="3">
         <v>141</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="8">
         <v>50</v>
       </c>
       <c r="E90" s="3">
@@ -2813,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="H90" s="6">
-        <f>D90*(1/(E90*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2827,7 +2881,7 @@
       <c r="C91" s="4">
         <v>142</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="8">
         <v>50</v>
       </c>
       <c r="E91" s="3">
@@ -2838,7 +2892,7 @@
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="6">
-        <f>D91*(1/(E91*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2852,7 +2906,7 @@
       <c r="C92" s="3">
         <v>143</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="8">
         <v>50</v>
       </c>
       <c r="E92" s="3">
@@ -2863,7 +2917,7 @@
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="6">
-        <f>D92*(1/(E92*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2877,7 +2931,7 @@
       <c r="C93" s="3">
         <v>144</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="8">
         <v>50</v>
       </c>
       <c r="E93" s="3">
@@ -2886,7 +2940,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="6">
-        <f>D93*(1/(E93*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2900,7 +2954,7 @@
       <c r="C94" s="3">
         <v>145</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="8">
         <v>50</v>
       </c>
       <c r="E94" s="3">
@@ -2909,7 +2963,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="6">
-        <f>D94*(1/(E94*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2923,7 +2977,7 @@
       <c r="C95" s="4">
         <v>146</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="8">
         <v>50</v>
       </c>
       <c r="E95" s="3">
@@ -2932,7 +2986,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="6">
-        <f>D95*(1/(E95*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2946,7 +3000,7 @@
       <c r="C96" s="3">
         <v>147</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="8">
         <v>50</v>
       </c>
       <c r="E96" s="3">
@@ -2955,7 +3009,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="6">
-        <f>D96*(1/(E96*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -2969,7 +3023,7 @@
       <c r="C97" s="3">
         <v>148</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="8">
         <f>40+144</f>
         <v>184</v>
       </c>
@@ -2979,7 +3033,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="6">
-        <f>D97*(1/(E97*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>33.119999999999997</v>
       </c>
     </row>
@@ -2993,7 +3047,7 @@
       <c r="C98" s="3">
         <v>149</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="8">
         <v>40</v>
       </c>
       <c r="E98" s="3">
@@ -3002,7 +3056,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6">
-        <f>D98*(1/(E98*1000/(60*60)))</f>
+        <f t="shared" ref="H98:H129" si="3">D98*(1/(E98*1000/(60*60)))</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
@@ -3016,7 +3070,7 @@
       <c r="C99" s="4">
         <v>150</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="8">
         <v>35</v>
       </c>
       <c r="E99" s="3">
@@ -3025,7 +3079,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="6">
-        <f>D99*(1/(E99*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
     </row>
@@ -3039,7 +3093,7 @@
       <c r="C100" s="3">
         <v>28</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="8">
         <v>50</v>
       </c>
       <c r="E100" s="3">
@@ -3050,7 +3104,7 @@
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="6">
-        <f>D100*(1/(E100*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3064,7 +3118,7 @@
       <c r="C101" s="4">
         <v>27</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="8">
         <v>50</v>
       </c>
       <c r="E101" s="3">
@@ -3073,7 +3127,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="6">
-        <f>D101*(1/(E101*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3087,7 +3141,7 @@
       <c r="C102" s="3">
         <v>26</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="8">
         <v>100</v>
       </c>
       <c r="E102" s="3">
@@ -3096,7 +3150,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="6">
-        <f>D102*(1/(E102*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -3110,7 +3164,7 @@
       <c r="C103" s="4">
         <v>25</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="8">
         <v>200</v>
       </c>
       <c r="E103" s="3">
@@ -3119,7 +3173,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="6">
-        <f>D103*(1/(E103*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>10.285714285714286</v>
       </c>
     </row>
@@ -3133,7 +3187,7 @@
       <c r="C104" s="3">
         <v>24</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="8">
         <v>300</v>
       </c>
       <c r="E104" s="3">
@@ -3142,7 +3196,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="6">
-        <f>D104*(1/(E104*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -3156,7 +3210,7 @@
       <c r="C105" s="3">
         <v>23</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="8">
         <v>300</v>
       </c>
       <c r="E105" s="3">
@@ -3165,7 +3219,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="6">
-        <f>D105*(1/(E105*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -3179,7 +3233,7 @@
       <c r="C106" s="4">
         <v>22</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="8">
         <v>300</v>
       </c>
       <c r="E106" s="3">
@@ -3192,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="H106" s="6">
-        <f>D106*(1/(E106*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -3206,7 +3260,7 @@
       <c r="C107" s="3">
         <v>21</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="8">
         <v>300</v>
       </c>
       <c r="E107" s="3">
@@ -3215,7 +3269,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="6">
-        <f>D107*(1/(E107*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
@@ -3229,7 +3283,7 @@
       <c r="C108" s="4">
         <v>20</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="8">
         <v>150</v>
       </c>
       <c r="E108" s="3">
@@ -3238,7 +3292,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="6">
-        <f>D108*(1/(E108*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3252,7 +3306,7 @@
       <c r="C109" s="3">
         <v>19</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="8">
         <v>150</v>
       </c>
       <c r="E109" s="3">
@@ -3263,7 +3317,7 @@
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="6">
-        <f>D109*(1/(E109*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3277,7 +3331,7 @@
       <c r="C110" s="3">
         <v>18</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="8">
         <v>150</v>
       </c>
       <c r="E110" s="3">
@@ -3286,7 +3340,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="6">
-        <f>D110*(1/(E110*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3300,7 +3354,7 @@
       <c r="C111" s="4">
         <v>17</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="8">
         <v>150</v>
       </c>
       <c r="E111" s="3">
@@ -3309,7 +3363,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="6">
-        <f>D111*(1/(E111*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3323,7 +3377,7 @@
       <c r="C112" s="3">
         <v>16</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="8">
         <v>150</v>
       </c>
       <c r="E112" s="3">
@@ -3336,7 +3390,7 @@
         <v>17</v>
       </c>
       <c r="H112" s="6">
-        <f>D112*(1/(E112*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3350,7 +3404,7 @@
       <c r="C113" s="4">
         <v>15</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="8">
         <v>150</v>
       </c>
       <c r="E113" s="3">
@@ -3359,7 +3413,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="6">
-        <f>D113*(1/(E113*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3373,7 +3427,7 @@
       <c r="C114" s="3">
         <v>14</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="8">
         <v>150</v>
       </c>
       <c r="E114" s="3">
@@ -3382,7 +3436,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="6">
-        <f>D114*(1/(E114*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3396,7 +3450,7 @@
       <c r="C115" s="3">
         <v>13</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="8">
         <v>150</v>
       </c>
       <c r="E115" s="3">
@@ -3405,7 +3459,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="6">
-        <f>D115*(1/(E115*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3419,7 +3473,7 @@
       <c r="C116" s="4">
         <v>12</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="8">
         <v>100</v>
       </c>
       <c r="E116" s="3">
@@ -3430,7 +3484,7 @@
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="6">
-        <f>D116*(1/(E116*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3444,7 +3498,7 @@
       <c r="C117" s="3">
         <v>11</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="8">
         <v>100</v>
       </c>
       <c r="E117" s="3">
@@ -3453,7 +3507,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="6">
-        <f>D117*(1/(E117*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3467,7 +3521,7 @@
       <c r="C118" s="4">
         <v>10</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="8">
         <v>100</v>
       </c>
       <c r="E118" s="3">
@@ -3476,7 +3530,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="6">
-        <f>D118*(1/(E118*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3490,7 +3544,7 @@
       <c r="C119" s="3">
         <v>9</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="8">
         <v>100</v>
       </c>
       <c r="E119" s="3">
@@ -3503,7 +3557,7 @@
         <v>21</v>
       </c>
       <c r="H119" s="6">
-        <f>D119*(1/(E119*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3517,7 +3571,7 @@
       <c r="C120" s="3">
         <v>8</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="8">
         <v>100</v>
       </c>
       <c r="E120" s="3">
@@ -3526,7 +3580,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="6">
-        <f>D120*(1/(E120*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3540,7 +3594,7 @@
       <c r="C121" s="4">
         <v>7</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="8">
         <v>100</v>
       </c>
       <c r="E121" s="3">
@@ -3549,7 +3603,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="3"/>
       <c r="H121" s="6">
-        <f>D121*(1/(E121*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3563,7 +3617,7 @@
       <c r="C122" s="3">
         <v>6</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="8">
         <v>100</v>
       </c>
       <c r="E122" s="3">
@@ -3572,7 +3626,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="6">
-        <f>D122*(1/(E122*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3586,7 +3640,7 @@
       <c r="C123" s="3">
         <v>5</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="8">
         <v>100</v>
       </c>
       <c r="E123" s="3">
@@ -3595,7 +3649,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="6">
-        <f>D123*(1/(E123*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3609,7 +3663,7 @@
       <c r="C124" s="4">
         <v>4</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="8">
         <v>100</v>
       </c>
       <c r="E124" s="3">
@@ -3618,7 +3672,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="6">
-        <f>D124*(1/(E124*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3632,7 +3686,7 @@
       <c r="C125" s="3">
         <v>3</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="8">
         <v>100</v>
       </c>
       <c r="E125" s="3">
@@ -3641,7 +3695,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="6">
-        <f>D125*(1/(E125*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3656,7 +3710,7 @@
       <c r="C126" s="3">
         <v>2</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="8">
         <v>100</v>
       </c>
       <c r="E126" s="3">
@@ -3669,13 +3723,13 @@
         <v>21</v>
       </c>
       <c r="H126" s="6">
-        <f>D126*(1/(E126*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
-        <f t="shared" ref="A127:A173" si="0">A126</f>
+        <f t="shared" ref="A127:A173" si="4">A126</f>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -3684,7 +3738,7 @@
       <c r="C127" s="4">
         <v>1</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="8">
         <v>100</v>
       </c>
       <c r="E127" s="3">
@@ -3693,13 +3747,13 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="6">
-        <f>D127*(1/(E127*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -3708,7 +3762,7 @@
       <c r="C128" s="3">
         <v>13</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="8">
         <v>150</v>
       </c>
       <c r="E128" s="3">
@@ -3717,13 +3771,13 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="6">
-        <f>D128*(1/(E128*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -3732,7 +3786,7 @@
       <c r="C129" s="3">
         <v>14</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="8">
         <v>150</v>
       </c>
       <c r="E129" s="3">
@@ -3741,13 +3795,13 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="6">
-        <f>D129*(1/(E129*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -3756,7 +3810,7 @@
       <c r="C130" s="4">
         <v>15</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="8">
         <v>150</v>
       </c>
       <c r="E130" s="3">
@@ -3765,13 +3819,13 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
-        <f>D130*(1/(E130*1000/(60*60)))</f>
+        <f t="shared" ref="H130:H161" si="5">D130*(1/(E130*1000/(60*60)))</f>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3780,7 +3834,7 @@
       <c r="C131" s="3">
         <v>16</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="8">
         <v>150</v>
       </c>
       <c r="E131" s="3">
@@ -3793,13 +3847,13 @@
         <v>17</v>
       </c>
       <c r="H131" s="6">
-        <f>D131*(1/(E131*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -3808,7 +3862,7 @@
       <c r="C132" s="4">
         <v>17</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="8">
         <v>150</v>
       </c>
       <c r="E132" s="3">
@@ -3817,13 +3871,13 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="6">
-        <f>D132*(1/(E132*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -3832,7 +3886,7 @@
       <c r="C133" s="3">
         <v>18</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="8">
         <v>150</v>
       </c>
       <c r="E133" s="3">
@@ -3841,13 +3895,13 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="6">
-        <f>D133*(1/(E133*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -3856,7 +3910,7 @@
       <c r="C134" s="3">
         <v>19</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="8">
         <v>150</v>
       </c>
       <c r="E134" s="3">
@@ -3867,13 +3921,13 @@
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="6">
-        <f>D134*(1/(E134*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -3882,7 +3936,7 @@
       <c r="C135" s="4">
         <v>20</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="8">
         <v>150</v>
       </c>
       <c r="E135" s="3">
@@ -3891,13 +3945,13 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="6">
-        <f>D135*(1/(E135*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -3906,7 +3960,7 @@
       <c r="C136" s="3">
         <v>21</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="8">
         <v>300</v>
       </c>
       <c r="E136" s="3">
@@ -3915,13 +3969,13 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="6">
-        <f>D136*(1/(E136*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -3930,7 +3984,7 @@
       <c r="C137" s="4">
         <v>22</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="8">
         <v>300</v>
       </c>
       <c r="E137" s="3">
@@ -3943,13 +3997,13 @@
         <v>17</v>
       </c>
       <c r="H137" s="6">
-        <f>D137*(1/(E137*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -3958,7 +4012,7 @@
       <c r="C138" s="3">
         <v>23</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="8">
         <v>300</v>
       </c>
       <c r="E138" s="3">
@@ -3967,13 +4021,13 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="6">
-        <f>D138*(1/(E138*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -3982,7 +4036,7 @@
       <c r="C139" s="3">
         <v>24</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="8">
         <v>300</v>
       </c>
       <c r="E139" s="3">
@@ -3991,13 +4045,13 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="6">
-        <f>D139*(1/(E139*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -4006,7 +4060,7 @@
       <c r="C140" s="4">
         <v>25</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="8">
         <v>200</v>
       </c>
       <c r="E140" s="3">
@@ -4015,13 +4069,13 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="6">
-        <f>D140*(1/(E140*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -4030,7 +4084,7 @@
       <c r="C141" s="3">
         <v>26</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="8">
         <v>100</v>
       </c>
       <c r="E141" s="3">
@@ -4039,13 +4093,13 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="6">
-        <f>D141*(1/(E141*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -4054,7 +4108,7 @@
       <c r="C142" s="4">
         <v>27</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="8">
         <v>50</v>
       </c>
       <c r="E142" s="3">
@@ -4063,13 +4117,13 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="6">
-        <f>D142*(1/(E142*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -4078,7 +4132,7 @@
       <c r="C143" s="3">
         <v>28</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="8">
         <v>50</v>
       </c>
       <c r="E143" s="3">
@@ -4089,13 +4143,13 @@
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="6">
-        <f>D143*(1/(E143*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -4104,7 +4158,7 @@
       <c r="C144" s="3">
         <v>29</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="8">
         <v>50</v>
       </c>
       <c r="E144" s="3">
@@ -4113,13 +4167,13 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="6">
-        <f>D144*(1/(E144*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -4128,7 +4182,7 @@
       <c r="C145" s="4">
         <v>30</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="8">
         <v>50</v>
       </c>
       <c r="E145" s="3">
@@ -4137,13 +4191,13 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="6">
-        <f>D145*(1/(E145*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -4152,7 +4206,7 @@
       <c r="C146" s="3">
         <v>31</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="8">
         <v>50</v>
       </c>
       <c r="E146" s="3">
@@ -4165,13 +4219,13 @@
         <v>21</v>
       </c>
       <c r="H146" s="6">
-        <f>D146*(1/(E146*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -4180,7 +4234,7 @@
       <c r="C147" s="4">
         <v>32</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="8">
         <v>50</v>
       </c>
       <c r="E147" s="3">
@@ -4189,13 +4243,13 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="6">
-        <f>D147*(1/(E147*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -4204,7 +4258,7 @@
       <c r="C148" s="3">
         <v>33</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="8">
         <v>50</v>
       </c>
       <c r="E148" s="3">
@@ -4213,13 +4267,13 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="6">
-        <f>D148*(1/(E148*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -4228,7 +4282,7 @@
       <c r="C149" s="3">
         <v>34</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="8">
         <v>50</v>
       </c>
       <c r="E149" s="3">
@@ -4237,13 +4291,13 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="6">
-        <f>D149*(1/(E149*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -4252,7 +4306,7 @@
       <c r="C150" s="4">
         <v>35</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="8">
         <v>50</v>
       </c>
       <c r="E150" s="3">
@@ -4261,13 +4315,13 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="6">
-        <f>D150*(1/(E150*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -4276,7 +4330,7 @@
       <c r="C151" s="3">
         <v>36</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="8">
         <v>50</v>
       </c>
       <c r="E151" s="3">
@@ -4287,7 +4341,7 @@
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="6">
-        <f>D151*(1/(E151*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -4302,7 +4356,7 @@
       <c r="C152" s="3">
         <v>37</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="8">
         <v>50</v>
       </c>
       <c r="E152" s="3">
@@ -4313,13 +4367,13 @@
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="6">
-        <f>D152*(1/(E152*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -4328,7 +4382,7 @@
       <c r="C153" s="4">
         <v>38</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="8">
         <v>50</v>
       </c>
       <c r="E153" s="3">
@@ -4339,13 +4393,13 @@
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="6">
-        <f>D153*(1/(E153*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -4354,7 +4408,7 @@
       <c r="C154" s="3">
         <v>39</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="8">
         <v>50</v>
       </c>
       <c r="E154" s="3">
@@ -4367,13 +4421,13 @@
         <v>2</v>
       </c>
       <c r="H154" s="6">
-        <f>D154*(1/(E154*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -4382,7 +4436,7 @@
       <c r="C155" s="3">
         <v>40</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="8">
         <v>50</v>
       </c>
       <c r="E155" s="3">
@@ -4393,13 +4447,13 @@
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="6">
-        <f>D155*(1/(E155*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -4408,7 +4462,7 @@
       <c r="C156" s="4">
         <v>41</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="8">
         <v>50</v>
       </c>
       <c r="E156" s="3">
@@ -4419,13 +4473,13 @@
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="6">
-        <f>D156*(1/(E156*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -4434,7 +4488,7 @@
       <c r="C157" s="3">
         <v>42</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="8">
         <v>50</v>
       </c>
       <c r="E157" s="3">
@@ -4445,13 +4499,13 @@
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="6">
-        <f>D157*(1/(E157*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -4460,7 +4514,7 @@
       <c r="C158" s="3">
         <v>43</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="8">
         <v>50</v>
       </c>
       <c r="E158" s="3">
@@ -4471,13 +4525,13 @@
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="6">
-        <f>D158*(1/(E158*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -4486,7 +4540,7 @@
       <c r="C159" s="4">
         <v>44</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="8">
         <v>50</v>
       </c>
       <c r="E159" s="3">
@@ -4497,13 +4551,13 @@
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="6">
-        <f>D159*(1/(E159*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -4512,7 +4566,7 @@
       <c r="C160" s="3">
         <v>45</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="8">
         <v>50</v>
       </c>
       <c r="E160" s="3">
@@ -4523,13 +4577,13 @@
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="6">
-        <f>D160*(1/(E160*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -4538,7 +4592,7 @@
       <c r="C161" s="3">
         <v>46</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="8">
         <v>50</v>
       </c>
       <c r="E161" s="3">
@@ -4549,13 +4603,13 @@
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="6">
-        <f>D161*(1/(E161*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -4564,7 +4618,7 @@
       <c r="C162" s="4">
         <v>47</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="8">
         <v>50</v>
       </c>
       <c r="E162" s="3">
@@ -4575,13 +4629,13 @@
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="6">
-        <f>D162*(1/(E162*1000/(60*60)))</f>
+        <f t="shared" ref="H162:H173" si="6">D162*(1/(E162*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -4590,7 +4644,7 @@
       <c r="C163" s="3">
         <v>48</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="8">
         <v>50</v>
       </c>
       <c r="E163" s="3">
@@ -4603,13 +4657,13 @@
         <v>2</v>
       </c>
       <c r="H163" s="6">
-        <f>D163*(1/(E163*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -4618,7 +4672,7 @@
       <c r="C164" s="3">
         <v>49</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="8">
         <v>50</v>
       </c>
       <c r="E164" s="3">
@@ -4629,13 +4683,13 @@
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="6">
-        <f>D164*(1/(E164*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -4644,7 +4698,7 @@
       <c r="C165" s="4">
         <v>50</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="8">
         <v>50</v>
       </c>
       <c r="E165" s="3">
@@ -4655,13 +4709,13 @@
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="6">
-        <f>D165*(1/(E165*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -4670,7 +4724,7 @@
       <c r="C166" s="3">
         <v>51</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="8">
         <v>50</v>
       </c>
       <c r="E166" s="3">
@@ -4681,13 +4735,13 @@
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="6">
-        <f>D166*(1/(E166*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -4696,7 +4750,7 @@
       <c r="C167" s="3">
         <v>52</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="8">
         <v>50</v>
       </c>
       <c r="E167" s="3">
@@ -4707,13 +4761,13 @@
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="6">
-        <f>D167*(1/(E167*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -4722,7 +4776,7 @@
       <c r="C168" s="4">
         <v>53</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="8">
         <v>50</v>
       </c>
       <c r="E168" s="3">
@@ -4733,13 +4787,13 @@
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="6">
-        <f>D168*(1/(E168*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -4748,7 +4802,7 @@
       <c r="C169" s="3">
         <v>54</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="8">
         <v>50</v>
       </c>
       <c r="E169" s="3">
@@ -4759,13 +4813,13 @@
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="6">
-        <f>D169*(1/(E169*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -4774,7 +4828,7 @@
       <c r="C170" s="3">
         <v>55</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="8">
         <v>50</v>
       </c>
       <c r="E170" s="3">
@@ -4785,13 +4839,13 @@
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="6">
-        <f>D170*(1/(E170*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -4800,7 +4854,7 @@
       <c r="C171" s="4">
         <v>56</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="8">
         <v>50</v>
       </c>
       <c r="E171" s="3">
@@ -4811,13 +4865,13 @@
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="6">
-        <f>D171*(1/(E171*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -4826,7 +4880,7 @@
       <c r="C172" s="3">
         <v>57</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="8">
         <v>50</v>
       </c>
       <c r="E172" s="3">
@@ -4839,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="H172" s="6">
-        <f>D172*(1/(E172*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -4854,7 +4908,7 @@
       <c r="C173" s="3">
         <v>58</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="8">
         <v>50</v>
       </c>
       <c r="E173" s="3">
@@ -4865,7 +4919,7 @@
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="6">
-        <f>D173*(1/(E173*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>

--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ABFF41D-11F2-40FD-AD7D-220B5125CDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8E5114E1-DAD8-4367-BB1A-A4E00A331648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7849A980-6B8A-46DB-8B1B-1CFF77717177}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Red Line" sheetId="1" r:id="rId1"/>
-    <sheet name="Green Line" sheetId="2" r:id="rId2"/>
+    <sheet name="Green Line" sheetId="2" r:id="rId1"/>
+    <sheet name="Red Line" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="53">
   <si>
     <t>K</t>
   </si>
@@ -81,9 +81,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>SWITCH (76-77;77-101)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Left/Right</t>
   </si>
   <si>
-    <t>SWITCH (85-86; 100-85)</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>STATION;   CASTLE SHANNON</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>RAILWAY CROSSING</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -135,18 +123,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; OVERBROOK; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; INGLEWOOD; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; CENTRAL; UNDERDROUND</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -162,27 +138,18 @@
     <t>STATION; WHITED</t>
   </si>
   <si>
-    <t>SWITCH (28-29; 150-28)</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>STATION</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>STATION; EDGEBROOK</t>
   </si>
   <si>
-    <t>SWITCH (12-13; 1-13)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -210,10 +177,25 @@
     <t>J</t>
   </si>
   <si>
-    <t>SWITCH TO YARD (57-yard)</t>
-  </si>
-  <si>
-    <t>SWITCH FROM YARD (Yard-63)</t>
+    <t>STATION; OVERBROOK</t>
+  </si>
+  <si>
+    <t>STATION; INGLEWOOD</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL</t>
+  </si>
+  <si>
+    <t>STATION; LEBRON</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>STATION; CASTLE SHANNON</t>
   </si>
 </sst>
 </file>
@@ -623,23 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +622,9 @@
     <col min="6" max="6" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.33203125" style="7"/>
+    <col min="9" max="9" width="10.33203125" style="7"/>
+    <col min="10" max="10" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.33203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -683,10 +655,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4">
         <v>62</v>
@@ -698,17 +670,17 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
-        <f>D2*(1/(E2*1000/(60*60)))</f>
+        <f t="shared" ref="H2:H33" si="0">D2*(1/(E2*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -725,13 +697,13 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6">
-        <f>D3*(1/(E3*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -748,13 +720,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="6">
-        <f>D4*(1/(E4*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -775,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="6">
-        <f>D5*(1/(E5*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -798,13 +770,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6">
-        <f>D6*(1/(E6*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -821,13 +793,13 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6">
-        <f>D7*(1/(E7*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -844,13 +816,13 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6">
-        <f>D8*(1/(E8*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -867,13 +839,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6">
-        <f>D9*(1/(E9*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -890,13 +862,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6">
-        <f>D10*(1/(E10*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -913,13 +885,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6">
-        <f>D11*(1/(E11*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -936,13 +908,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6">
-        <f>D12*(1/(E12*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -963,13 +935,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="6">
-        <f>D13*(1/(E13*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -986,13 +958,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6">
-        <f>D14*(1/(E14*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1009,13 +981,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6">
-        <f>D15*(1/(E15*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -1029,21 +1001,19 @@
       <c r="E16" s="3">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6">
-        <f>D16*(1/(E16*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>77</v>
@@ -1055,22 +1025,22 @@
         <v>70</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H17" s="6">
-        <f>D17*(1/(E17*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>78</v>
@@ -1084,16 +1054,16 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6">
-        <f>D18*(1/(E18*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
         <v>79</v>
@@ -1107,16 +1077,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6">
-        <f>D19*(1/(E19*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <v>80</v>
@@ -1130,16 +1100,16 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6">
-        <f>D20*(1/(E20*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>81</v>
@@ -1153,16 +1123,16 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6">
-        <f>D21*(1/(E21*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4">
         <v>82</v>
@@ -1176,16 +1146,16 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6">
-        <f>D22*(1/(E22*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>83</v>
@@ -1199,16 +1169,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6">
-        <f>D23*(1/(E23*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
         <v>84</v>
@@ -1222,16 +1192,16 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6">
-        <f>D24*(1/(E24*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3">
         <v>85</v>
@@ -1242,21 +1212,19 @@
       <c r="E25" s="3">
         <v>70</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6">
-        <f>D25*(1/(E25*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <v>86</v>
@@ -1270,16 +1238,16 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6">
-        <f>D26*(1/(E26*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>87</v>
@@ -1293,16 +1261,16 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6">
-        <f>D27*(1/(E27*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>12.470399999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>88</v>
@@ -1314,22 +1282,22 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="6">
-        <f>D28*(1/(E28*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <v>89</v>
@@ -1343,16 +1311,16 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6">
-        <f>D29*(1/(E29*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4">
         <v>90</v>
@@ -1366,16 +1334,16 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6">
-        <f>D30*(1/(E30*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3">
         <v>91</v>
@@ -1389,16 +1357,16 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6">
-        <f>D31*(1/(E31*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3">
         <v>92</v>
@@ -1412,16 +1380,16 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6">
-        <f>D32*(1/(E32*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3">
         <v>93</v>
@@ -1435,16 +1403,16 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6">
-        <f>D33*(1/(E33*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
         <v>94</v>
@@ -1458,16 +1426,16 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6">
-        <f>D34*(1/(E34*1000/(60*60)))</f>
+        <f t="shared" ref="H34:H65" si="1">D34*(1/(E34*1000/(60*60)))</f>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
         <v>95</v>
@@ -1481,16 +1449,16 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6">
-        <f>D35*(1/(E35*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3">
         <v>96</v>
@@ -1502,22 +1470,22 @@
         <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36" s="6">
-        <f>D36*(1/(E36*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3">
         <v>97</v>
@@ -1531,16 +1499,16 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="6">
-        <f>D37*(1/(E37*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4">
         <v>98</v>
@@ -1554,16 +1522,16 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6">
-        <f>D38*(1/(E38*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" s="3">
         <v>99</v>
@@ -1577,16 +1545,16 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6">
-        <f>D39*(1/(E39*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
@@ -1600,16 +1568,16 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6">
-        <f>D40*(1/(E40*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="3">
         <v>85</v>
@@ -1620,21 +1588,19 @@
       <c r="E41" s="3">
         <v>70</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="6">
-        <f>D41*(1/(E41*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3">
         <v>84</v>
@@ -1648,16 +1614,16 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="6">
-        <f>D42*(1/(E42*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3">
         <v>83</v>
@@ -1671,16 +1637,16 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6">
-        <f>D43*(1/(E43*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="4">
         <v>82</v>
@@ -1694,16 +1660,16 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="6">
-        <f>D44*(1/(E44*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="3">
         <v>81</v>
@@ -1717,16 +1683,16 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6">
-        <f>D45*(1/(E45*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3">
         <v>80</v>
@@ -1740,16 +1706,16 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="6">
-        <f>D46*(1/(E46*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="3">
         <v>79</v>
@@ -1763,16 +1729,16 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="6">
-        <f>D47*(1/(E47*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
         <v>78</v>
@@ -1786,16 +1752,16 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="6">
-        <f>D48*(1/(E48*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3">
         <v>77</v>
@@ -1807,22 +1773,22 @@
         <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H49" s="6">
-        <f>D49*(1/(E49*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3">
         <v>101</v>
@@ -1836,16 +1802,16 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="6">
-        <f>D50*(1/(E50*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>4.8461538461538467</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C51" s="4">
         <v>102</v>
@@ -1859,16 +1825,16 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6">
-        <f>D51*(1/(E51*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="3">
         <v>103</v>
@@ -1882,16 +1848,16 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="6">
-        <f>D52*(1/(E52*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" s="3">
         <v>104</v>
@@ -1905,16 +1871,16 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="6">
-        <f>D53*(1/(E53*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54" s="3">
         <v>105</v>
@@ -1932,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="H54" s="6">
-        <f>D54*(1/(E54*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55" s="4">
         <v>106</v>
@@ -1955,16 +1921,16 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="6">
-        <f>D55*(1/(E55*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3">
         <v>107</v>
@@ -1978,16 +1944,16 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="6">
-        <f>D56*(1/(E56*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>11.571428571428573</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C57" s="3">
         <v>108</v>
@@ -1998,21 +1964,19 @@
       <c r="E57" s="3">
         <v>28</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="6">
-        <f>D57*(1/(E57*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58" s="3">
         <v>109</v>
@@ -2026,16 +1990,16 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="6">
-        <f>D58*(1/(E58*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C59" s="4">
         <v>110</v>
@@ -2049,16 +2013,16 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="6">
-        <f>D59*(1/(E59*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C60" s="3">
         <v>111</v>
@@ -2072,16 +2036,16 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="6">
-        <f>D60*(1/(E60*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C61" s="3">
         <v>112</v>
@@ -2095,16 +2059,16 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="6">
-        <f>D61*(1/(E61*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C62" s="3">
         <v>113</v>
@@ -2118,16 +2082,16 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="6">
-        <f>D62*(1/(E62*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C63" s="4">
         <v>114</v>
@@ -2139,23 +2103,21 @@
       <c r="E63" s="3">
         <v>30</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="6">
-        <f>D63*(1/(E63*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>19.439999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C64" s="3">
         <v>115</v>
@@ -2169,16 +2131,16 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="6">
-        <f>D64*(1/(E64*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C65" s="3">
         <v>116</v>
@@ -2192,16 +2154,16 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="6">
-        <f>D65*(1/(E65*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C66" s="3">
         <v>117</v>
@@ -2215,16 +2177,16 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="6">
-        <f>D66*(1/(E66*1000/(60*60)))</f>
+        <f t="shared" ref="H66:H97" si="2">D66*(1/(E66*1000/(60*60)))</f>
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4">
         <v>118</v>
@@ -2238,16 +2200,16 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6">
-        <f>D67*(1/(E67*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68" s="3">
         <v>119</v>
@@ -2261,16 +2223,16 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="6">
-        <f>D68*(1/(E68*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C69" s="3">
         <v>120</v>
@@ -2284,16 +2246,16 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="6">
-        <f>D69*(1/(E69*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C70" s="3">
         <v>121</v>
@@ -2307,16 +2269,16 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="6">
-        <f>D70*(1/(E70*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C71" s="4">
         <v>122</v>
@@ -2327,21 +2289,19 @@
       <c r="E71" s="3">
         <v>20</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="6">
-        <f>D71*(1/(E71*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3">
         <v>123</v>
@@ -2353,22 +2313,22 @@
         <v>20</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <f>D72*(1/(E72*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C73" s="3">
         <v>124</v>
@@ -2379,21 +2339,19 @@
       <c r="E73" s="3">
         <v>20</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="6">
-        <f>D73*(1/(E73*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3">
         <v>125</v>
@@ -2404,21 +2362,19 @@
       <c r="E74" s="3">
         <v>20</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="6">
-        <f>D74*(1/(E74*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4">
         <v>126</v>
@@ -2429,21 +2385,19 @@
       <c r="E75" s="3">
         <v>20</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="6">
-        <f>D75*(1/(E75*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C76" s="3">
         <v>127</v>
@@ -2454,21 +2408,19 @@
       <c r="E76" s="3">
         <v>20</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="6">
-        <f>D76*(1/(E76*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C77" s="3">
         <v>128</v>
@@ -2479,21 +2431,19 @@
       <c r="E77" s="3">
         <v>20</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="6">
-        <f>D77*(1/(E77*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C78" s="3">
         <v>129</v>
@@ -2504,21 +2454,19 @@
       <c r="E78" s="3">
         <v>20</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="6">
-        <f>D78*(1/(E78*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C79" s="4">
         <v>130</v>
@@ -2529,21 +2477,19 @@
       <c r="E79" s="3">
         <v>20</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="6">
-        <f>D79*(1/(E79*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C80" s="3">
         <v>131</v>
@@ -2554,21 +2500,19 @@
       <c r="E80" s="3">
         <v>20</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="6">
-        <f>D80*(1/(E80*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C81" s="3">
         <v>132</v>
@@ -2580,22 +2524,22 @@
         <v>20</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H81" s="6">
-        <f>D81*(1/(E81*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C82" s="3">
         <v>133</v>
@@ -2606,21 +2550,19 @@
       <c r="E82" s="3">
         <v>20</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="6">
-        <f>D82*(1/(E82*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C83" s="4">
         <v>134</v>
@@ -2631,21 +2573,19 @@
       <c r="E83" s="3">
         <v>20</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="6">
-        <f>D83*(1/(E83*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C84" s="3">
         <v>135</v>
@@ -2656,21 +2596,19 @@
       <c r="E84" s="3">
         <v>20</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="6">
-        <f>D84*(1/(E84*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C85" s="3">
         <v>136</v>
@@ -2681,21 +2619,19 @@
       <c r="E85" s="3">
         <v>20</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="6">
-        <f>D85*(1/(E85*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C86" s="3">
         <v>137</v>
@@ -2706,21 +2642,19 @@
       <c r="E86" s="3">
         <v>20</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="6">
-        <f>D86*(1/(E86*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C87" s="4">
         <v>138</v>
@@ -2731,21 +2665,19 @@
       <c r="E87" s="3">
         <v>20</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="6">
-        <f>D87*(1/(E87*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C88" s="3">
         <v>139</v>
@@ -2756,21 +2688,19 @@
       <c r="E88" s="3">
         <v>20</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="6">
-        <f>D88*(1/(E88*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C89" s="3">
         <v>140</v>
@@ -2781,21 +2711,19 @@
       <c r="E89" s="3">
         <v>20</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="6">
-        <f>D89*(1/(E89*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C90" s="3">
         <v>141</v>
@@ -2807,22 +2735,22 @@
         <v>20</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H90" s="6">
-        <f>D90*(1/(E90*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4">
         <v>142</v>
@@ -2833,21 +2761,19 @@
       <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="6">
-        <f>D91*(1/(E91*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C92" s="3">
         <v>143</v>
@@ -2858,21 +2784,19 @@
       <c r="E92" s="3">
         <v>20</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="6">
-        <f>D92*(1/(E92*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3">
         <v>144</v>
@@ -2886,16 +2810,16 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="6">
-        <f>D93*(1/(E93*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3">
         <v>145</v>
@@ -2909,16 +2833,16 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="6">
-        <f>D94*(1/(E94*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C95" s="4">
         <v>146</v>
@@ -2932,16 +2856,16 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="6">
-        <f>D95*(1/(E95*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C96" s="3">
         <v>147</v>
@@ -2955,16 +2879,16 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="6">
-        <f>D96*(1/(E96*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C97" s="3">
         <v>148</v>
@@ -2979,16 +2903,16 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="6">
-        <f>D97*(1/(E97*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>33.119999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C98" s="3">
         <v>149</v>
@@ -3002,16 +2926,16 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6">
-        <f>D98*(1/(E98*1000/(60*60)))</f>
+        <f t="shared" ref="H98:H129" si="3">D98*(1/(E98*1000/(60*60)))</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C99" s="4">
         <v>150</v>
@@ -3025,16 +2949,16 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="6">
-        <f>D99*(1/(E99*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C100" s="3">
         <v>28</v>
@@ -3045,21 +2969,19 @@
       <c r="E100" s="3">
         <v>30</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="6">
-        <f>D100*(1/(E100*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C101" s="4">
         <v>27</v>
@@ -3073,16 +2995,16 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="6">
-        <f>D101*(1/(E101*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C102" s="3">
         <v>26</v>
@@ -3096,16 +3018,16 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="6">
-        <f>D102*(1/(E102*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C103" s="4">
         <v>25</v>
@@ -3119,16 +3041,16 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="6">
-        <f>D103*(1/(E103*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C104" s="3">
         <v>24</v>
@@ -3142,16 +3064,16 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="6">
-        <f>D104*(1/(E104*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C105" s="3">
         <v>23</v>
@@ -3165,16 +3087,16 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="6">
-        <f>D105*(1/(E105*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C106" s="4">
         <v>22</v>
@@ -3186,22 +3108,22 @@
         <v>70</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="6">
-        <f>D106*(1/(E106*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C107" s="3">
         <v>21</v>
@@ -3215,16 +3137,16 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="6">
-        <f>D107*(1/(E107*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C108" s="4">
         <v>20</v>
@@ -3238,16 +3160,16 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="6">
-        <f>D108*(1/(E108*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C109" s="3">
         <v>19</v>
@@ -3258,21 +3180,19 @@
       <c r="E109" s="3">
         <v>60</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="F109" s="5"/>
       <c r="G109" s="3"/>
       <c r="H109" s="6">
-        <f>D109*(1/(E109*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C110" s="3">
         <v>18</v>
@@ -3286,16 +3206,16 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="6">
-        <f>D110*(1/(E110*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C111" s="4">
         <v>17</v>
@@ -3309,16 +3229,16 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="6">
-        <f>D111*(1/(E111*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C112" s="3">
         <v>16</v>
@@ -3330,22 +3250,22 @@
         <v>70</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" s="6">
-        <f>D112*(1/(E112*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C113" s="4">
         <v>15</v>
@@ -3359,16 +3279,16 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="6">
-        <f>D113*(1/(E113*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C114" s="3">
         <v>14</v>
@@ -3382,16 +3302,16 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="6">
-        <f>D114*(1/(E114*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C115" s="3">
         <v>13</v>
@@ -3405,16 +3325,16 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="6">
-        <f>D115*(1/(E115*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C116" s="4">
         <v>12</v>
@@ -3425,21 +3345,19 @@
       <c r="E116" s="3">
         <v>45</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="6">
-        <f>D116*(1/(E116*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C117" s="3">
         <v>11</v>
@@ -3453,16 +3371,16 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="6">
-        <f>D117*(1/(E117*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C118" s="4">
         <v>10</v>
@@ -3476,16 +3394,16 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="6">
-        <f>D118*(1/(E118*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C119" s="3">
         <v>9</v>
@@ -3497,22 +3415,22 @@
         <v>45</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H119" s="6">
-        <f>D119*(1/(E119*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C120" s="3">
         <v>8</v>
@@ -3526,16 +3444,16 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="6">
-        <f>D120*(1/(E120*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C121" s="4">
         <v>7</v>
@@ -3549,16 +3467,16 @@
       <c r="F121" s="5"/>
       <c r="G121" s="3"/>
       <c r="H121" s="6">
-        <f>D121*(1/(E121*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C122" s="3">
         <v>6</v>
@@ -3572,16 +3490,16 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="6">
-        <f>D122*(1/(E122*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C123" s="3">
         <v>5</v>
@@ -3595,16 +3513,16 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="6">
-        <f>D123*(1/(E123*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C124" s="4">
         <v>4</v>
@@ -3618,16 +3536,16 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="6">
-        <f>D124*(1/(E124*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C125" s="3">
         <v>3</v>
@@ -3641,7 +3559,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="6">
-        <f>D125*(1/(E125*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3651,7 +3569,7 @@
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
@@ -3663,23 +3581,23 @@
         <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H126" s="6">
-        <f>D126*(1/(E126*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
-        <f t="shared" ref="A127:A173" si="0">A126</f>
+        <f t="shared" ref="A127:A173" si="4">A126</f>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
@@ -3693,17 +3611,17 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="6">
-        <f>D127*(1/(E127*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C128" s="3">
         <v>13</v>
@@ -3717,17 +3635,17 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="6">
-        <f>D128*(1/(E128*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C129" s="3">
         <v>14</v>
@@ -3741,17 +3659,17 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="6">
-        <f>D129*(1/(E129*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C130" s="4">
         <v>15</v>
@@ -3765,17 +3683,17 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
-        <f>D130*(1/(E130*1000/(60*60)))</f>
+        <f t="shared" ref="H130:H161" si="5">D130*(1/(E130*1000/(60*60)))</f>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C131" s="3">
         <v>16</v>
@@ -3787,23 +3705,23 @@
         <v>70</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" s="6">
-        <f>D131*(1/(E131*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C132" s="4">
         <v>17</v>
@@ -3817,17 +3735,17 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="6">
-        <f>D132*(1/(E132*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C133" s="3">
         <v>18</v>
@@ -3841,17 +3759,17 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="6">
-        <f>D133*(1/(E133*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C134" s="3">
         <v>19</v>
@@ -3862,22 +3780,20 @@
       <c r="E134" s="3">
         <v>60</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="F134" s="5"/>
       <c r="G134" s="3"/>
       <c r="H134" s="6">
-        <f>D134*(1/(E134*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C135" s="4">
         <v>20</v>
@@ -3891,17 +3807,17 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="6">
-        <f>D135*(1/(E135*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C136" s="3">
         <v>21</v>
@@ -3915,17 +3831,17 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="6">
-        <f>D136*(1/(E136*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C137" s="4">
         <v>22</v>
@@ -3937,23 +3853,23 @@
         <v>70</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H137" s="6">
-        <f>D137*(1/(E137*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C138" s="3">
         <v>23</v>
@@ -3967,17 +3883,17 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="6">
-        <f>D138*(1/(E138*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C139" s="3">
         <v>24</v>
@@ -3991,17 +3907,17 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="6">
-        <f>D139*(1/(E139*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C140" s="4">
         <v>25</v>
@@ -4015,17 +3931,17 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="6">
-        <f>D140*(1/(E140*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C141" s="3">
         <v>26</v>
@@ -4039,17 +3955,17 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="6">
-        <f>D141*(1/(E141*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C142" s="4">
         <v>27</v>
@@ -4063,17 +3979,17 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="6">
-        <f>D142*(1/(E142*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C143" s="3">
         <v>28</v>
@@ -4084,22 +4000,20 @@
       <c r="E143" s="3">
         <v>30</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="6">
-        <f>D143*(1/(E143*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C144" s="3">
         <v>29</v>
@@ -4113,17 +4027,17 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="6">
-        <f>D144*(1/(E144*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C145" s="4">
         <v>30</v>
@@ -4137,17 +4051,17 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="6">
-        <f>D145*(1/(E145*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C146" s="3">
         <v>31</v>
@@ -4159,23 +4073,23 @@
         <v>30</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H146" s="6">
-        <f>D146*(1/(E146*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C147" s="4">
         <v>32</v>
@@ -4189,17 +4103,17 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="6">
-        <f>D147*(1/(E147*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C148" s="3">
         <v>33</v>
@@ -4213,17 +4127,17 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="6">
-        <f>D148*(1/(E148*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C149" s="3">
         <v>34</v>
@@ -4237,17 +4151,17 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="6">
-        <f>D149*(1/(E149*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C150" s="4">
         <v>35</v>
@@ -4261,17 +4175,17 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="6">
-        <f>D150*(1/(E150*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C151" s="3">
         <v>36</v>
@@ -4282,12 +4196,10 @@
       <c r="E151" s="3">
         <v>30</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="6">
-        <f>D151*(1/(E151*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -4297,7 +4209,7 @@
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C152" s="3">
         <v>37</v>
@@ -4308,22 +4220,20 @@
       <c r="E152" s="3">
         <v>30</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="6">
-        <f>D152*(1/(E152*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C153" s="4">
         <v>38</v>
@@ -4334,22 +4244,20 @@
       <c r="E153" s="3">
         <v>30</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="6">
-        <f>D153*(1/(E153*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C154" s="3">
         <v>39</v>
@@ -4361,23 +4269,23 @@
         <v>30</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H154" s="6">
-        <f>D154*(1/(E154*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C155" s="3">
         <v>40</v>
@@ -4388,22 +4296,20 @@
       <c r="E155" s="3">
         <v>30</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="6">
-        <f>D155*(1/(E155*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C156" s="4">
         <v>41</v>
@@ -4414,22 +4320,20 @@
       <c r="E156" s="3">
         <v>30</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="6">
-        <f>D156*(1/(E156*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C157" s="3">
         <v>42</v>
@@ -4440,22 +4344,20 @@
       <c r="E157" s="3">
         <v>30</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="6">
-        <f>D157*(1/(E157*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C158" s="3">
         <v>43</v>
@@ -4466,22 +4368,20 @@
       <c r="E158" s="3">
         <v>30</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="6">
-        <f>D158*(1/(E158*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C159" s="4">
         <v>44</v>
@@ -4492,22 +4392,20 @@
       <c r="E159" s="3">
         <v>30</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="6">
-        <f>D159*(1/(E159*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C160" s="3">
         <v>45</v>
@@ -4518,22 +4416,20 @@
       <c r="E160" s="3">
         <v>30</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="6">
-        <f>D160*(1/(E160*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C161" s="3">
         <v>46</v>
@@ -4544,22 +4440,20 @@
       <c r="E161" s="3">
         <v>30</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="6">
-        <f>D161*(1/(E161*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C162" s="4">
         <v>47</v>
@@ -4570,22 +4464,20 @@
       <c r="E162" s="3">
         <v>30</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="6">
-        <f>D162*(1/(E162*1000/(60*60)))</f>
+        <f t="shared" ref="H162:H173" si="6">D162*(1/(E162*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C163" s="3">
         <v>48</v>
@@ -4597,23 +4489,23 @@
         <v>30</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H163" s="6">
-        <f>D163*(1/(E163*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C164" s="3">
         <v>49</v>
@@ -4624,22 +4516,20 @@
       <c r="E164" s="3">
         <v>30</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="6">
-        <f>D164*(1/(E164*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C165" s="4">
         <v>50</v>
@@ -4650,22 +4540,20 @@
       <c r="E165" s="3">
         <v>30</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="6">
-        <f>D165*(1/(E165*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C166" s="3">
         <v>51</v>
@@ -4676,22 +4564,20 @@
       <c r="E166" s="3">
         <v>30</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="6">
-        <f>D166*(1/(E166*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C167" s="3">
         <v>52</v>
@@ -4702,22 +4588,20 @@
       <c r="E167" s="3">
         <v>30</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="6">
-        <f>D167*(1/(E167*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C168" s="4">
         <v>53</v>
@@ -4728,22 +4612,20 @@
       <c r="E168" s="3">
         <v>30</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="6">
-        <f>D168*(1/(E168*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C169" s="3">
         <v>54</v>
@@ -4754,22 +4636,20 @@
       <c r="E169" s="3">
         <v>30</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="6">
-        <f>D169*(1/(E169*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C170" s="3">
         <v>55</v>
@@ -4780,22 +4660,20 @@
       <c r="E170" s="3">
         <v>30</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="6">
-        <f>D170*(1/(E170*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C171" s="4">
         <v>56</v>
@@ -4806,22 +4684,20 @@
       <c r="E171" s="3">
         <v>30</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="6">
-        <f>D171*(1/(E171*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C172" s="3">
         <v>57</v>
@@ -4833,23 +4709,23 @@
         <v>30</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H172" s="6">
-        <f>D172*(1/(E172*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C173" s="3">
         <v>58</v>
@@ -4861,11 +4737,11 @@
         <v>30</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="6">
-        <f>D173*(1/(E173*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -4875,4 +4751,16 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\CTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8E5114E1-DAD8-4367-BB1A-A4E00A331648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7849A980-6B8A-46DB-8B1B-1CFF77717177}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64775EF-75DB-4DC2-9D3A-2FF9B5C48937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="43095" yWindow="705" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="65">
   <si>
     <t>K</t>
   </si>
@@ -197,6 +197,42 @@
   <si>
     <t>STATION; CASTLE SHANNON</t>
   </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>STATION; SHADYSIDE</t>
+  </si>
+  <si>
+    <t>STATION: HERRON AVE</t>
+  </si>
+  <si>
+    <t>STATION; HERRON AVE</t>
+  </si>
+  <si>
+    <t>STATION; SWISSVILLE</t>
+  </si>
+  <si>
+    <t>UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; PENN STATION</t>
+  </si>
+  <si>
+    <t>STATION; STEEL PLAZA</t>
+  </si>
+  <si>
+    <t>STATION; FIRST AVE</t>
+  </si>
+  <si>
+    <t>STATION; STATION SQUARE</t>
+  </si>
+  <si>
+    <t>STATION; SOUTH HILLS JUNCTION</t>
+  </si>
+  <si>
+    <t>STATION: SHADYSIDE</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +307,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,8 +719,8 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H33" si="0">D2*(1/(E2*1000/(60*60)))</f>
-        <v>6</v>
+        <f>'Red Line'!H2</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -697,7 +742,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H33" si="0">D3*(1/(E3*1000/(60*60)))</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -4755,12 +4800,2039 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="7">
+        <f>D2*(1/(E2*1000/(60*60)))</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7">
+        <f>D3*(1/(E3*1000/(60*60)))</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4" si="0">D4*(1/(E4*1000/(60*60)))</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8">
+        <v>200</v>
+      </c>
+      <c r="E12" s="8">
+        <v>55</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8">
+        <v>400</v>
+      </c>
+      <c r="E13" s="8">
+        <v>70</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
+        <v>400</v>
+      </c>
+      <c r="E14" s="8">
+        <v>70</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>200</v>
+      </c>
+      <c r="E15" s="8">
+        <v>70</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8">
+        <v>55</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8">
+        <v>100</v>
+      </c>
+      <c r="E17" s="8">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <v>55</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>70</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="10">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8">
+        <v>70</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8">
+        <v>70</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10">
+        <v>27</v>
+      </c>
+      <c r="D22" s="8">
+        <v>50</v>
+      </c>
+      <c r="E22" s="8">
+        <v>70</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="8">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8">
+        <v>70</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8">
+        <v>70</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="8">
+        <v>31</v>
+      </c>
+      <c r="D26" s="8">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8">
+        <v>70</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8">
+        <v>70</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="8">
+        <v>33</v>
+      </c>
+      <c r="D28" s="8">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8">
+        <v>70</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="8">
+        <v>34</v>
+      </c>
+      <c r="D29" s="8">
+        <v>50</v>
+      </c>
+      <c r="E29" s="8">
+        <v>70</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="10">
+        <v>35</v>
+      </c>
+      <c r="D30" s="8">
+        <v>50</v>
+      </c>
+      <c r="E30" s="8">
+        <v>70</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="8">
+        <v>36</v>
+      </c>
+      <c r="D31" s="8">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8">
+        <v>70</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="8">
+        <v>37</v>
+      </c>
+      <c r="D32" s="8">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8">
+        <v>70</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="10">
+        <v>38</v>
+      </c>
+      <c r="D33" s="8">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8">
+        <v>70</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="8">
+        <v>39</v>
+      </c>
+      <c r="D34" s="8">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8">
+        <v>70</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="8">
+        <v>40</v>
+      </c>
+      <c r="D35" s="8">
+        <v>60</v>
+      </c>
+      <c r="E35" s="8">
+        <v>70</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="10">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8">
+        <v>70</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="8">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8">
+        <v>50</v>
+      </c>
+      <c r="E37" s="8">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8">
+        <v>43</v>
+      </c>
+      <c r="D38" s="8">
+        <v>50</v>
+      </c>
+      <c r="E38" s="8">
+        <v>70</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="10">
+        <v>44</v>
+      </c>
+      <c r="D39" s="8">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8">
+        <v>70</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="8">
+        <v>45</v>
+      </c>
+      <c r="D40" s="8">
+        <v>50</v>
+      </c>
+      <c r="E40" s="8">
+        <v>70</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="8">
+        <v>46</v>
+      </c>
+      <c r="D41" s="8">
+        <v>75</v>
+      </c>
+      <c r="E41" s="8">
+        <v>70</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10">
+        <v>47</v>
+      </c>
+      <c r="D42" s="8">
+        <v>75</v>
+      </c>
+      <c r="E42" s="8">
+        <v>70</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="8">
+        <v>48</v>
+      </c>
+      <c r="D43" s="8">
+        <v>75</v>
+      </c>
+      <c r="E43" s="8">
+        <v>70</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="8">
+        <v>49</v>
+      </c>
+      <c r="D44" s="8">
+        <v>50</v>
+      </c>
+      <c r="E44" s="8">
+        <v>60</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10">
+        <v>50</v>
+      </c>
+      <c r="D45" s="8">
+        <v>50</v>
+      </c>
+      <c r="E45" s="8">
+        <v>60</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="8">
+        <v>51</v>
+      </c>
+      <c r="D46" s="8">
+        <v>50</v>
+      </c>
+      <c r="E46" s="8">
+        <v>55</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8">
+        <v>52</v>
+      </c>
+      <c r="D47" s="8">
+        <v>43.2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>55</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="10">
+        <v>53</v>
+      </c>
+      <c r="D48" s="8">
+        <v>50</v>
+      </c>
+      <c r="E48" s="8">
+        <v>55</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="8">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8">
+        <v>50</v>
+      </c>
+      <c r="E49" s="8">
+        <v>55</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8">
+        <v>75</v>
+      </c>
+      <c r="E50" s="8">
+        <v>55</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10">
+        <v>56</v>
+      </c>
+      <c r="D51" s="8">
+        <v>75</v>
+      </c>
+      <c r="E51" s="8">
+        <v>55</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>57</v>
+      </c>
+      <c r="D52" s="8">
+        <v>75</v>
+      </c>
+      <c r="E52" s="8">
+        <v>55</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="8">
+        <v>58</v>
+      </c>
+      <c r="D53" s="8">
+        <v>75</v>
+      </c>
+      <c r="E53" s="8">
+        <v>55</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="10">
+        <v>59</v>
+      </c>
+      <c r="D54" s="8">
+        <v>75</v>
+      </c>
+      <c r="E54" s="8">
+        <v>55</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="8">
+        <v>60</v>
+      </c>
+      <c r="D55" s="8">
+        <v>75</v>
+      </c>
+      <c r="E55" s="8">
+        <v>55</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="8">
+        <v>61</v>
+      </c>
+      <c r="D56" s="8">
+        <v>75</v>
+      </c>
+      <c r="E56" s="8">
+        <v>55</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="10">
+        <v>62</v>
+      </c>
+      <c r="D57" s="8">
+        <v>75</v>
+      </c>
+      <c r="E57" s="8">
+        <v>55</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="8">
+        <v>63</v>
+      </c>
+      <c r="D58" s="8">
+        <v>75</v>
+      </c>
+      <c r="E58" s="8">
+        <v>55</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8">
+        <v>64</v>
+      </c>
+      <c r="D59" s="8">
+        <v>75</v>
+      </c>
+      <c r="E59" s="8">
+        <v>55</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="10">
+        <v>65</v>
+      </c>
+      <c r="D60" s="8">
+        <v>75</v>
+      </c>
+      <c r="E60" s="8">
+        <v>55</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="8">
+        <v>66</v>
+      </c>
+      <c r="D61" s="8">
+        <v>75</v>
+      </c>
+      <c r="E61" s="8">
+        <v>55</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="8">
+        <v>52</v>
+      </c>
+      <c r="D62" s="8">
+        <v>43.2</v>
+      </c>
+      <c r="E62" s="8">
+        <v>55</v>
+      </c>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="8">
+        <v>51</v>
+      </c>
+      <c r="D63" s="8">
+        <v>50</v>
+      </c>
+      <c r="E63" s="8">
+        <v>55</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="10">
+        <v>50</v>
+      </c>
+      <c r="D64" s="8">
+        <v>50</v>
+      </c>
+      <c r="E64" s="8">
+        <v>60</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="8">
+        <v>49</v>
+      </c>
+      <c r="D65" s="8">
+        <v>50</v>
+      </c>
+      <c r="E65" s="8">
+        <v>60</v>
+      </c>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="8">
+        <v>48</v>
+      </c>
+      <c r="D66" s="8">
+        <v>75</v>
+      </c>
+      <c r="E66" s="8">
+        <v>70</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="10">
+        <v>47</v>
+      </c>
+      <c r="D67" s="8">
+        <v>75</v>
+      </c>
+      <c r="E67" s="8">
+        <v>70</v>
+      </c>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="8">
+        <v>46</v>
+      </c>
+      <c r="D68" s="8">
+        <v>75</v>
+      </c>
+      <c r="E68" s="8">
+        <v>70</v>
+      </c>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="8">
+        <v>45</v>
+      </c>
+      <c r="D69" s="8">
+        <v>50</v>
+      </c>
+      <c r="E69" s="8">
+        <v>70</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44</v>
+      </c>
+      <c r="D70" s="8">
+        <v>50</v>
+      </c>
+      <c r="E70" s="8">
+        <v>70</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="8">
+        <v>67</v>
+      </c>
+      <c r="D71" s="8">
+        <v>50</v>
+      </c>
+      <c r="E71" s="8">
+        <v>55</v>
+      </c>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="10">
+        <v>68</v>
+      </c>
+      <c r="D72" s="8">
+        <v>50</v>
+      </c>
+      <c r="E72" s="8">
+        <v>55</v>
+      </c>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="8">
+        <v>69</v>
+      </c>
+      <c r="D73" s="8">
+        <v>50</v>
+      </c>
+      <c r="E73" s="8">
+        <v>55</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="8">
+        <v>70</v>
+      </c>
+      <c r="D74" s="8">
+        <v>50</v>
+      </c>
+      <c r="E74" s="8">
+        <v>55</v>
+      </c>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="10">
+        <v>71</v>
+      </c>
+      <c r="D75" s="8">
+        <v>50</v>
+      </c>
+      <c r="E75" s="8">
+        <v>55</v>
+      </c>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="10">
+        <v>38</v>
+      </c>
+      <c r="D76" s="8">
+        <v>50</v>
+      </c>
+      <c r="E76" s="8">
+        <v>70</v>
+      </c>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="8">
+        <v>37</v>
+      </c>
+      <c r="D77" s="8">
+        <v>50</v>
+      </c>
+      <c r="E77" s="8">
+        <v>70</v>
+      </c>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="str">
+        <f t="shared" ref="A78:A98" si="1">A77</f>
+        <v>Red</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="8">
+        <v>36</v>
+      </c>
+      <c r="D78" s="8">
+        <v>50</v>
+      </c>
+      <c r="E78" s="8">
+        <v>70</v>
+      </c>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="10">
+        <v>35</v>
+      </c>
+      <c r="D79" s="8">
+        <v>50</v>
+      </c>
+      <c r="E79" s="8">
+        <v>70</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="8">
+        <v>34</v>
+      </c>
+      <c r="D80" s="8">
+        <v>50</v>
+      </c>
+      <c r="E80" s="8">
+        <v>70</v>
+      </c>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="8">
+        <v>33</v>
+      </c>
+      <c r="D81" s="8">
+        <v>50</v>
+      </c>
+      <c r="E81" s="8">
+        <v>70</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="8">
+        <v>72</v>
+      </c>
+      <c r="D82" s="8">
+        <v>50</v>
+      </c>
+      <c r="E82" s="8">
+        <v>55</v>
+      </c>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="8">
+        <v>73</v>
+      </c>
+      <c r="D83" s="8">
+        <v>50</v>
+      </c>
+      <c r="E83" s="8">
+        <v>55</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="10">
+        <v>74</v>
+      </c>
+      <c r="D84" s="8">
+        <v>50</v>
+      </c>
+      <c r="E84" s="8">
+        <v>55</v>
+      </c>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="8">
+        <v>75</v>
+      </c>
+      <c r="D85" s="8">
+        <v>50</v>
+      </c>
+      <c r="E85" s="8">
+        <v>55</v>
+      </c>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="8">
+        <v>76</v>
+      </c>
+      <c r="D86" s="8">
+        <v>50</v>
+      </c>
+      <c r="E86" s="8">
+        <v>55</v>
+      </c>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="10">
+        <v>27</v>
+      </c>
+      <c r="D87" s="8">
+        <v>50</v>
+      </c>
+      <c r="E87" s="8">
+        <v>70</v>
+      </c>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="8">
+        <v>26</v>
+      </c>
+      <c r="D88" s="8">
+        <v>50</v>
+      </c>
+      <c r="E88" s="8">
+        <v>70</v>
+      </c>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="10">
+        <v>25</v>
+      </c>
+      <c r="D89" s="8">
+        <v>50</v>
+      </c>
+      <c r="E89" s="8">
+        <v>70</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="8">
+        <v>24</v>
+      </c>
+      <c r="D90" s="8">
+        <v>50</v>
+      </c>
+      <c r="E90" s="8">
+        <v>70</v>
+      </c>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="8">
+        <v>23</v>
+      </c>
+      <c r="D91" s="8">
+        <v>100</v>
+      </c>
+      <c r="E91" s="8">
+        <v>55</v>
+      </c>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="10">
+        <v>22</v>
+      </c>
+      <c r="D92" s="8">
+        <v>100</v>
+      </c>
+      <c r="E92" s="8">
+        <v>55</v>
+      </c>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="8">
+        <v>21</v>
+      </c>
+      <c r="D93" s="8">
+        <v>100</v>
+      </c>
+      <c r="E93" s="8">
+        <v>55</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="10">
+        <v>20</v>
+      </c>
+      <c r="D94" s="8">
+        <v>200</v>
+      </c>
+      <c r="E94" s="8">
+        <v>70</v>
+      </c>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="8">
+        <v>19</v>
+      </c>
+      <c r="D95" s="8">
+        <v>400</v>
+      </c>
+      <c r="E95" s="8">
+        <v>70</v>
+      </c>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="8">
+        <v>18</v>
+      </c>
+      <c r="D96" s="8">
+        <v>400</v>
+      </c>
+      <c r="E96" s="8">
+        <v>70</v>
+      </c>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="10">
+        <v>17</v>
+      </c>
+      <c r="D97" s="8">
+        <v>200</v>
+      </c>
+      <c r="E97" s="8">
+        <v>55</v>
+      </c>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="8">
+        <v>16</v>
+      </c>
+      <c r="D98" s="8">
+        <v>50</v>
+      </c>
+      <c r="E98" s="8">
+        <v>40</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="10">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8">
+        <v>50</v>
+      </c>
+      <c r="E99" s="8">
+        <v>40</v>
+      </c>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="str">
+        <f>A99</f>
+        <v>Red</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>50</v>
+      </c>
+      <c r="E100" s="8">
+        <v>40</v>
+      </c>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="str">
+        <f t="shared" ref="A101:A106" si="2">A100</f>
+        <v>Red</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3</v>
+      </c>
+      <c r="D101" s="8">
+        <v>50</v>
+      </c>
+      <c r="E101" s="8">
+        <v>40</v>
+      </c>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Red</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="10">
+        <v>4</v>
+      </c>
+      <c r="D102" s="8">
+        <v>50</v>
+      </c>
+      <c r="E102" s="8">
+        <v>40</v>
+      </c>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Red</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="8">
+        <v>5</v>
+      </c>
+      <c r="D103" s="8">
+        <v>50</v>
+      </c>
+      <c r="E103" s="8">
+        <v>40</v>
+      </c>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Red</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="8">
+        <v>6</v>
+      </c>
+      <c r="D104" s="8">
+        <v>50</v>
+      </c>
+      <c r="E104" s="8">
+        <v>40</v>
+      </c>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Red</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="10">
+        <v>7</v>
+      </c>
+      <c r="D105" s="8">
+        <v>75</v>
+      </c>
+      <c r="E105" s="8">
+        <v>40</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Red</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="8">
+        <v>8</v>
+      </c>
+      <c r="D106" s="8">
+        <v>75</v>
+      </c>
+      <c r="E106" s="8">
+        <v>40</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\CTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64775EF-75DB-4DC2-9D3A-2FF9B5C48937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB86ABF-76A6-4D61-9482-9FC0B2A13C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="705" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="70">
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>STATION; GLENBURY</t>
-  </si>
-  <si>
     <t>Right</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>STATION; DORMONT</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -177,15 +171,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>STATION; OVERBROOK</t>
-  </si>
-  <si>
-    <t>STATION; INGLEWOOD</t>
-  </si>
-  <si>
-    <t>STATION; CENTRAL</t>
-  </si>
-  <si>
     <t>STATION; LEBRON</t>
   </si>
   <si>
@@ -232,6 +217,36 @@
   </si>
   <si>
     <t>STATION: SHADYSIDE</t>
+  </si>
+  <si>
+    <t>STATION; GLENBURY OUT</t>
+  </si>
+  <si>
+    <t>STATION; DORMONT OUT</t>
+  </si>
+  <si>
+    <t>STATION; DORMONT IN</t>
+  </si>
+  <si>
+    <t>STATION; GLENBURY IN</t>
+  </si>
+  <si>
+    <t>STATION; OVERBROOK OUT</t>
+  </si>
+  <si>
+    <t>STATION; INGLEWOOD OUT</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL OUT</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL IN</t>
+  </si>
+  <si>
+    <t>STATION; INGLEWOOD IN</t>
+  </si>
+  <si>
+    <t>STATION; OVERBROOK IN</t>
   </si>
 </sst>
 </file>
@@ -653,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,36 +689,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4">
         <v>62</v>
@@ -715,7 +730,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
@@ -725,7 +740,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -748,7 +763,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -771,7 +786,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -786,10 +801,10 @@
         <v>70</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
@@ -798,7 +813,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -821,7 +836,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -844,7 +859,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -867,10 +882,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>69</v>
@@ -890,10 +905,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>70</v>
@@ -913,10 +928,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>71</v>
@@ -936,10 +951,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>72</v>
@@ -959,10 +974,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>73</v>
@@ -974,10 +989,10 @@
         <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
@@ -986,10 +1001,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>74</v>
@@ -1009,10 +1024,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
         <v>75</v>
@@ -1032,10 +1047,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
         <v>76</v>
@@ -1055,10 +1070,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
         <v>77</v>
@@ -1070,10 +1085,10 @@
         <v>70</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
@@ -1082,10 +1097,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>78</v>
@@ -1105,10 +1120,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>79</v>
@@ -1128,10 +1143,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>80</v>
@@ -1151,10 +1166,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>81</v>
@@ -1174,10 +1189,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>82</v>
@@ -1197,10 +1212,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>83</v>
@@ -1220,10 +1235,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3">
         <v>84</v>
@@ -1243,10 +1258,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3">
         <v>85</v>
@@ -1266,10 +1281,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <v>86</v>
@@ -1289,10 +1304,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>87</v>
@@ -1312,10 +1327,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
         <v>88</v>
@@ -1327,10 +1342,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="0"/>
@@ -1339,10 +1354,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <v>89</v>
@@ -1362,10 +1377,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4">
         <v>90</v>
@@ -1385,10 +1400,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3">
         <v>91</v>
@@ -1408,10 +1423,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>92</v>
@@ -1431,10 +1446,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3">
         <v>93</v>
@@ -1454,10 +1469,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4">
         <v>94</v>
@@ -1477,10 +1492,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3">
         <v>95</v>
@@ -1500,10 +1515,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
         <v>96</v>
@@ -1515,10 +1530,10 @@
         <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
@@ -1527,10 +1542,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3">
         <v>97</v>
@@ -1550,10 +1565,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4">
         <v>98</v>
@@ -1573,10 +1588,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3">
         <v>99</v>
@@ -1596,10 +1611,10 @@
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
@@ -1619,10 +1634,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3">
         <v>85</v>
@@ -1642,10 +1657,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3">
         <v>84</v>
@@ -1665,10 +1680,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3">
         <v>83</v>
@@ -1688,10 +1703,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4">
         <v>82</v>
@@ -1711,10 +1726,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>81</v>
@@ -1734,10 +1749,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3">
         <v>80</v>
@@ -1757,10 +1772,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3">
         <v>79</v>
@@ -1780,10 +1795,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" s="4">
         <v>78</v>
@@ -1803,10 +1818,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>77</v>
@@ -1818,10 +1833,10 @@
         <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="1"/>
@@ -1830,10 +1845,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="3">
         <v>101</v>
@@ -1853,10 +1868,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4">
         <v>102</v>
@@ -1876,10 +1891,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="3">
         <v>103</v>
@@ -1899,10 +1914,10 @@
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="3">
         <v>104</v>
@@ -1922,10 +1937,10 @@
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3">
         <v>105</v>
@@ -1937,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
@@ -1949,10 +1964,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4">
         <v>106</v>
@@ -1972,10 +1987,10 @@
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3">
         <v>107</v>
@@ -1995,10 +2010,10 @@
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" s="3">
         <v>108</v>
@@ -2018,10 +2033,10 @@
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="3">
         <v>109</v>
@@ -2041,10 +2056,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4">
         <v>110</v>
@@ -2064,10 +2079,10 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="3">
         <v>111</v>
@@ -2087,10 +2102,10 @@
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="3">
         <v>112</v>
@@ -2110,10 +2125,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3">
         <v>113</v>
@@ -2133,10 +2148,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4">
         <v>114</v>
@@ -2148,9 +2163,11 @@
       <c r="E63" s="3">
         <v>30</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G63" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" si="1"/>
@@ -2159,10 +2176,10 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3">
         <v>115</v>
@@ -2182,10 +2199,10 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3">
         <v>116</v>
@@ -2205,10 +2222,10 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="3">
         <v>117</v>
@@ -2228,10 +2245,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4">
         <v>118</v>
@@ -2251,10 +2268,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="3">
         <v>119</v>
@@ -2274,10 +2291,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3">
         <v>120</v>
@@ -2297,10 +2314,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3">
         <v>121</v>
@@ -2320,10 +2337,10 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4">
         <v>122</v>
@@ -2343,10 +2360,10 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="3">
         <v>123</v>
@@ -2358,10 +2375,10 @@
         <v>20</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6">
         <f t="shared" si="2"/>
@@ -2370,10 +2387,10 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="3">
         <v>124</v>
@@ -2393,10 +2410,10 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74" s="3">
         <v>125</v>
@@ -2416,10 +2433,10 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="4">
         <v>126</v>
@@ -2439,10 +2456,10 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="3">
         <v>127</v>
@@ -2462,10 +2479,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C77" s="3">
         <v>128</v>
@@ -2485,10 +2502,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78" s="3">
         <v>129</v>
@@ -2508,10 +2525,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C79" s="4">
         <v>130</v>
@@ -2531,10 +2548,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C80" s="3">
         <v>131</v>
@@ -2554,10 +2571,10 @@
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C81" s="3">
         <v>132</v>
@@ -2569,10 +2586,10 @@
         <v>20</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="2"/>
@@ -2581,10 +2598,10 @@
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C82" s="3">
         <v>133</v>
@@ -2604,10 +2621,10 @@
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C83" s="4">
         <v>134</v>
@@ -2627,10 +2644,10 @@
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="3">
         <v>135</v>
@@ -2650,10 +2667,10 @@
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="3">
         <v>136</v>
@@ -2673,10 +2690,10 @@
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C86" s="3">
         <v>137</v>
@@ -2696,10 +2713,10 @@
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" s="4">
         <v>138</v>
@@ -2719,10 +2736,10 @@
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" s="3">
         <v>139</v>
@@ -2742,10 +2759,10 @@
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" s="3">
         <v>140</v>
@@ -2765,10 +2782,10 @@
     </row>
     <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3">
         <v>141</v>
@@ -2780,10 +2797,10 @@
         <v>20</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" si="2"/>
@@ -2792,10 +2809,10 @@
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C91" s="4">
         <v>142</v>
@@ -2815,10 +2832,10 @@
     </row>
     <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C92" s="3">
         <v>143</v>
@@ -2838,10 +2855,10 @@
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93" s="3">
         <v>144</v>
@@ -2861,10 +2878,10 @@
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" s="3">
         <v>145</v>
@@ -2884,10 +2901,10 @@
     </row>
     <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C95" s="4">
         <v>146</v>
@@ -2907,10 +2924,10 @@
     </row>
     <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C96" s="3">
         <v>147</v>
@@ -2930,10 +2947,10 @@
     </row>
     <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C97" s="3">
         <v>148</v>
@@ -2954,10 +2971,10 @@
     </row>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C98" s="3">
         <v>149</v>
@@ -2977,10 +2994,10 @@
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C99" s="4">
         <v>150</v>
@@ -3000,10 +3017,10 @@
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C100" s="3">
         <v>28</v>
@@ -3023,10 +3040,10 @@
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C101" s="4">
         <v>27</v>
@@ -3046,10 +3063,10 @@
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C102" s="3">
         <v>26</v>
@@ -3069,10 +3086,10 @@
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C103" s="4">
         <v>25</v>
@@ -3092,10 +3109,10 @@
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C104" s="3">
         <v>24</v>
@@ -3115,10 +3132,10 @@
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C105" s="3">
         <v>23</v>
@@ -3138,10 +3155,10 @@
     </row>
     <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106" s="4">
         <v>22</v>
@@ -3153,10 +3170,10 @@
         <v>70</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H106" s="6">
         <f t="shared" si="3"/>
@@ -3165,10 +3182,10 @@
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C107" s="3">
         <v>21</v>
@@ -3188,10 +3205,10 @@
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C108" s="4">
         <v>20</v>
@@ -3211,10 +3228,10 @@
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C109" s="3">
         <v>19</v>
@@ -3234,10 +3251,10 @@
     </row>
     <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C110" s="3">
         <v>18</v>
@@ -3257,10 +3274,10 @@
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4">
         <v>17</v>
@@ -3280,10 +3297,10 @@
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" s="3">
         <v>16</v>
@@ -3295,10 +3312,10 @@
         <v>70</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H112" s="6">
         <f t="shared" si="3"/>
@@ -3307,10 +3324,10 @@
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" s="4">
         <v>15</v>
@@ -3330,10 +3347,10 @@
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C114" s="3">
         <v>14</v>
@@ -3353,10 +3370,10 @@
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C115" s="3">
         <v>13</v>
@@ -3376,10 +3393,10 @@
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C116" s="4">
         <v>12</v>
@@ -3399,10 +3416,10 @@
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C117" s="3">
         <v>11</v>
@@ -3422,10 +3439,10 @@
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C118" s="4">
         <v>10</v>
@@ -3445,10 +3462,10 @@
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C119" s="3">
         <v>9</v>
@@ -3460,10 +3477,10 @@
         <v>45</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H119" s="6">
         <f t="shared" si="3"/>
@@ -3472,10 +3489,10 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C120" s="3">
         <v>8</v>
@@ -3495,10 +3512,10 @@
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C121" s="4">
         <v>7</v>
@@ -3518,10 +3535,10 @@
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C122" s="3">
         <v>6</v>
@@ -3541,10 +3558,10 @@
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C123" s="3">
         <v>5</v>
@@ -3564,10 +3581,10 @@
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C124" s="4">
         <v>4</v>
@@ -3587,10 +3604,10 @@
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C125" s="3">
         <v>3</v>
@@ -3614,7 +3631,7 @@
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
@@ -3626,10 +3643,10 @@
         <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H126" s="6">
         <f t="shared" si="3"/>
@@ -3642,7 +3659,7 @@
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
@@ -3666,7 +3683,7 @@
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C128" s="3">
         <v>13</v>
@@ -3690,7 +3707,7 @@
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129" s="3">
         <v>14</v>
@@ -3714,7 +3731,7 @@
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C130" s="4">
         <v>15</v>
@@ -3738,7 +3755,7 @@
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C131" s="3">
         <v>16</v>
@@ -3750,10 +3767,10 @@
         <v>70</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H131" s="6">
         <f t="shared" si="5"/>
@@ -3766,7 +3783,7 @@
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C132" s="4">
         <v>17</v>
@@ -3790,7 +3807,7 @@
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C133" s="3">
         <v>18</v>
@@ -3814,7 +3831,7 @@
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C134" s="3">
         <v>19</v>
@@ -3838,7 +3855,7 @@
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C135" s="4">
         <v>20</v>
@@ -3862,7 +3879,7 @@
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C136" s="3">
         <v>21</v>
@@ -3886,7 +3903,7 @@
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C137" s="4">
         <v>22</v>
@@ -3898,10 +3915,10 @@
         <v>70</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H137" s="6">
         <f t="shared" si="5"/>
@@ -3914,7 +3931,7 @@
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3">
         <v>23</v>
@@ -3938,7 +3955,7 @@
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C139" s="3">
         <v>24</v>
@@ -3962,7 +3979,7 @@
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C140" s="4">
         <v>25</v>
@@ -3986,7 +4003,7 @@
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C141" s="3">
         <v>26</v>
@@ -4010,7 +4027,7 @@
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C142" s="4">
         <v>27</v>
@@ -4034,7 +4051,7 @@
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C143" s="3">
         <v>28</v>
@@ -4058,7 +4075,7 @@
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C144" s="3">
         <v>29</v>
@@ -4082,7 +4099,7 @@
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C145" s="4">
         <v>30</v>
@@ -4106,7 +4123,7 @@
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C146" s="3">
         <v>31</v>
@@ -4118,10 +4135,10 @@
         <v>30</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H146" s="6">
         <f t="shared" si="5"/>
@@ -4134,7 +4151,7 @@
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C147" s="4">
         <v>32</v>
@@ -4158,7 +4175,7 @@
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C148" s="3">
         <v>33</v>
@@ -4182,7 +4199,7 @@
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C149" s="3">
         <v>34</v>
@@ -4206,7 +4223,7 @@
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C150" s="4">
         <v>35</v>
@@ -4230,7 +4247,7 @@
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C151" s="3">
         <v>36</v>
@@ -4254,7 +4271,7 @@
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C152" s="3">
         <v>37</v>
@@ -4278,7 +4295,7 @@
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C153" s="4">
         <v>38</v>
@@ -4302,7 +4319,7 @@
         <v>Green</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C154" s="3">
         <v>39</v>
@@ -4314,10 +4331,10 @@
         <v>30</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" s="6">
         <f t="shared" si="5"/>
@@ -4330,7 +4347,7 @@
         <v>Green</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C155" s="3">
         <v>40</v>
@@ -4354,7 +4371,7 @@
         <v>Green</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C156" s="4">
         <v>41</v>
@@ -4378,7 +4395,7 @@
         <v>Green</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C157" s="3">
         <v>42</v>
@@ -4402,7 +4419,7 @@
         <v>Green</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C158" s="3">
         <v>43</v>
@@ -4426,7 +4443,7 @@
         <v>Green</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C159" s="4">
         <v>44</v>
@@ -4450,7 +4467,7 @@
         <v>Green</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C160" s="3">
         <v>45</v>
@@ -4474,7 +4491,7 @@
         <v>Green</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C161" s="3">
         <v>46</v>
@@ -4498,7 +4515,7 @@
         <v>Green</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C162" s="4">
         <v>47</v>
@@ -4522,7 +4539,7 @@
         <v>Green</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C163" s="3">
         <v>48</v>
@@ -4534,10 +4551,10 @@
         <v>30</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" s="6">
         <f t="shared" si="6"/>
@@ -4550,7 +4567,7 @@
         <v>Green</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C164" s="3">
         <v>49</v>
@@ -4574,7 +4591,7 @@
         <v>Green</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C165" s="4">
         <v>50</v>
@@ -4598,7 +4615,7 @@
         <v>Green</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C166" s="3">
         <v>51</v>
@@ -4622,7 +4639,7 @@
         <v>Green</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C167" s="3">
         <v>52</v>
@@ -4646,7 +4663,7 @@
         <v>Green</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C168" s="4">
         <v>53</v>
@@ -4670,7 +4687,7 @@
         <v>Green</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C169" s="3">
         <v>54</v>
@@ -4694,7 +4711,7 @@
         <v>Green</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" s="3">
         <v>55</v>
@@ -4718,7 +4735,7 @@
         <v>Green</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C171" s="4">
         <v>56</v>
@@ -4742,7 +4759,7 @@
         <v>Green</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C172" s="3">
         <v>57</v>
@@ -4754,10 +4771,10 @@
         <v>30</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" s="6">
         <f t="shared" si="6"/>
@@ -4770,7 +4787,7 @@
         <v>Green</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C173" s="3">
         <v>58</v>
@@ -4782,7 +4799,7 @@
         <v>30</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="6">
@@ -4802,7 +4819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -4821,36 +4838,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7">
         <v>9</v>
@@ -4862,7 +4879,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="7">
         <f>D2*(1/(E2*1000/(60*60)))</f>
@@ -4871,10 +4888,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>8</v>
@@ -4892,10 +4909,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7">
         <v>7</v>
@@ -4907,10 +4924,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4" si="0">D4*(1/(E4*1000/(60*60)))</f>
@@ -4919,10 +4936,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -4936,10 +4953,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -4953,10 +4970,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -4970,10 +4987,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4987,10 +5004,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -5004,10 +5021,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -5021,10 +5038,10 @@
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <v>16</v>
@@ -5036,18 +5053,18 @@
         <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10">
         <v>17</v>
@@ -5063,10 +5080,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8">
         <v>18</v>
@@ -5082,10 +5099,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8">
         <v>19</v>
@@ -5101,10 +5118,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10">
         <v>20</v>
@@ -5120,10 +5137,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
         <v>21</v>
@@ -5135,18 +5152,18 @@
         <v>55</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10">
         <v>22</v>
@@ -5161,10 +5178,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8">
         <v>23</v>
@@ -5179,10 +5196,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8">
         <v>24</v>
@@ -5197,10 +5214,10 @@
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10">
         <v>25</v>
@@ -5212,18 +5229,18 @@
         <v>70</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8">
         <v>26</v>
@@ -5238,10 +5255,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10">
         <v>27</v>
@@ -5256,10 +5273,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8">
         <v>28</v>
@@ -5274,10 +5291,10 @@
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8">
         <v>29</v>
@@ -5292,10 +5309,10 @@
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="10">
         <v>30</v>
@@ -5310,10 +5327,10 @@
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="8">
         <v>31</v>
@@ -5328,10 +5345,10 @@
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10">
         <v>32</v>
@@ -5346,10 +5363,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8">
         <v>33</v>
@@ -5364,10 +5381,10 @@
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8">
         <v>34</v>
@@ -5382,10 +5399,10 @@
     </row>
     <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="10">
         <v>35</v>
@@ -5397,18 +5414,18 @@
         <v>70</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>36</v>
@@ -5423,10 +5440,10 @@
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8">
         <v>37</v>
@@ -5441,10 +5458,10 @@
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="10">
         <v>38</v>
@@ -5459,10 +5476,10 @@
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="8">
         <v>39</v>
@@ -5477,10 +5494,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="8">
         <v>40</v>
@@ -5495,10 +5512,10 @@
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="10">
         <v>41</v>
@@ -5513,10 +5530,10 @@
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="8">
         <v>42</v>
@@ -5531,10 +5548,10 @@
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="8">
         <v>43</v>
@@ -5549,10 +5566,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="10">
         <v>44</v>
@@ -5567,10 +5584,10 @@
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="8">
         <v>45</v>
@@ -5582,18 +5599,18 @@
         <v>70</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>46</v>
@@ -5608,10 +5625,10 @@
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="10">
         <v>47</v>
@@ -5626,10 +5643,10 @@
     </row>
     <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="8">
         <v>48</v>
@@ -5641,18 +5658,18 @@
         <v>70</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="8">
         <v>49</v>
@@ -5667,10 +5684,10 @@
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="10">
         <v>50</v>
@@ -5685,10 +5702,10 @@
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="8">
         <v>51</v>
@@ -5703,10 +5720,10 @@
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="8">
         <v>52</v>
@@ -5721,10 +5738,10 @@
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="10">
         <v>53</v>
@@ -5739,10 +5756,10 @@
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="8">
         <v>54</v>
@@ -5757,7 +5774,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>0</v>
@@ -5775,7 +5792,7 @@
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>0</v>
@@ -5793,7 +5810,7 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>0</v>
@@ -5811,10 +5828,10 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8">
         <v>58</v>
@@ -5829,10 +5846,10 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="10">
         <v>59</v>
@@ -5847,10 +5864,10 @@
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="8">
         <v>60</v>
@@ -5862,18 +5879,18 @@
         <v>55</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" s="8">
         <v>61</v>
@@ -5888,10 +5905,10 @@
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" s="10">
         <v>62</v>
@@ -5906,10 +5923,10 @@
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" s="8">
         <v>63</v>
@@ -5924,10 +5941,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="8">
         <v>64</v>
@@ -5942,10 +5959,10 @@
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" s="10">
         <v>65</v>
@@ -5960,10 +5977,10 @@
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="8">
         <v>66</v>
@@ -5978,10 +5995,10 @@
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" s="8">
         <v>52</v>
@@ -5996,10 +6013,10 @@
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="8">
         <v>51</v>
@@ -6014,10 +6031,10 @@
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="10">
         <v>50</v>
@@ -6032,10 +6049,10 @@
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" s="8">
         <v>49</v>
@@ -6050,10 +6067,10 @@
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" s="8">
         <v>48</v>
@@ -6065,15 +6082,15 @@
         <v>70</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" s="10">
         <v>47</v>
@@ -6088,10 +6105,10 @@
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" s="8">
         <v>46</v>
@@ -6106,10 +6123,10 @@
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C69" s="8">
         <v>45</v>
@@ -6121,15 +6138,15 @@
         <v>70</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" s="10">
         <v>44</v>
@@ -6141,15 +6158,15 @@
         <v>70</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8">
         <v>67</v>
@@ -6164,10 +6181,10 @@
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C72" s="10">
         <v>68</v>
@@ -6182,10 +6199,10 @@
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C73" s="8">
         <v>69</v>
@@ -6200,10 +6217,10 @@
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C74" s="8">
         <v>70</v>
@@ -6218,10 +6235,10 @@
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" s="10">
         <v>71</v>
@@ -6236,10 +6253,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" s="10">
         <v>38</v>
@@ -6254,10 +6271,10 @@
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" s="8">
         <v>37</v>
@@ -6276,7 +6293,7 @@
         <v>Red</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" s="8">
         <v>36</v>
@@ -6295,7 +6312,7 @@
         <v>Red</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" s="10">
         <v>35</v>
@@ -6307,7 +6324,7 @@
         <v>70</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6316,7 +6333,7 @@
         <v>Red</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C80" s="8">
         <v>34</v>
@@ -6335,7 +6352,7 @@
         <v>Red</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" s="8">
         <v>33</v>
@@ -6354,7 +6371,7 @@
         <v>Red</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82" s="8">
         <v>72</v>
@@ -6373,7 +6390,7 @@
         <v>Red</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C83" s="8">
         <v>73</v>
@@ -6392,7 +6409,7 @@
         <v>Red</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" s="10">
         <v>74</v>
@@ -6411,7 +6428,7 @@
         <v>Red</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" s="8">
         <v>75</v>
@@ -6430,7 +6447,7 @@
         <v>Red</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C86" s="8">
         <v>76</v>
@@ -6449,7 +6466,7 @@
         <v>Red</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" s="10">
         <v>27</v>
@@ -6468,7 +6485,7 @@
         <v>Red</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C88" s="8">
         <v>26</v>
@@ -6487,7 +6504,7 @@
         <v>Red</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" s="10">
         <v>25</v>
@@ -6499,7 +6516,7 @@
         <v>70</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6508,7 +6525,7 @@
         <v>Red</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C90" s="8">
         <v>24</v>
@@ -6527,7 +6544,7 @@
         <v>Red</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C91" s="8">
         <v>23</v>
@@ -6546,7 +6563,7 @@
         <v>Red</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C92" s="10">
         <v>22</v>
@@ -6565,7 +6582,7 @@
         <v>Red</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C93" s="8">
         <v>21</v>
@@ -6577,7 +6594,7 @@
         <v>55</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6586,7 +6603,7 @@
         <v>Red</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="10">
         <v>20</v>
@@ -6605,7 +6622,7 @@
         <v>Red</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C95" s="8">
         <v>19</v>
@@ -6624,7 +6641,7 @@
         <v>Red</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C96" s="8">
         <v>18</v>
@@ -6643,7 +6660,7 @@
         <v>Red</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C97" s="10">
         <v>17</v>
@@ -6662,7 +6679,7 @@
         <v>Red</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C98" s="8">
         <v>16</v>
@@ -6674,15 +6691,15 @@
         <v>40</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C99" s="10">
         <v>1</v>
@@ -6701,7 +6718,7 @@
         <v>Red</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C100" s="8">
         <v>2</v>
@@ -6720,7 +6737,7 @@
         <v>Red</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C101" s="8">
         <v>3</v>
@@ -6739,7 +6756,7 @@
         <v>Red</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C102" s="10">
         <v>4</v>
@@ -6758,7 +6775,7 @@
         <v>Red</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C103" s="8">
         <v>5</v>
@@ -6777,7 +6794,7 @@
         <v>Red</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C104" s="8">
         <v>6</v>
@@ -6796,7 +6813,7 @@
         <v>Red</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" s="10">
         <v>7</v>
@@ -6808,7 +6825,7 @@
         <v>40</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6817,7 +6834,7 @@
         <v>Red</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C106" s="8">
         <v>8</v>
@@ -6829,7 +6846,7 @@
         <v>40</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\CTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/CTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64775EF-75DB-4DC2-9D3A-2FF9B5C48937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E64775EF-75DB-4DC2-9D3A-2FF9B5C48937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2252507-E936-4685-B000-8B36B8637607}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="705" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="69">
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>STATION; GLENBURY</t>
   </si>
   <si>
     <t>Right</t>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>STATION; DORMONT</t>
   </si>
   <si>
     <t>M</t>
@@ -177,15 +171,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>STATION; OVERBROOK</t>
-  </si>
-  <si>
-    <t>STATION; INGLEWOOD</t>
-  </si>
-  <si>
-    <t>STATION; CENTRAL</t>
-  </si>
-  <si>
     <t>STATION; LEBRON</t>
   </si>
   <si>
@@ -232,6 +217,33 @@
   </si>
   <si>
     <t>STATION: SHADYSIDE</t>
+  </si>
+  <si>
+    <t>STATION; GLENBURY OUT</t>
+  </si>
+  <si>
+    <t>STATION; DORMONT OUT</t>
+  </si>
+  <si>
+    <t>STATION; DORMONT IN</t>
+  </si>
+  <si>
+    <t>STATION; OVERBROOK IN</t>
+  </si>
+  <si>
+    <t>STATION; INGLEWOOD IN</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL IN</t>
+  </si>
+  <si>
+    <t>STATION; OVERBROOK OUT</t>
+  </si>
+  <si>
+    <t>STATION; INGLEWOOD OUT</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL OUT</t>
   </si>
 </sst>
 </file>
@@ -653,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,36 +686,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4">
         <v>62</v>
@@ -715,7 +727,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
@@ -725,7 +737,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -748,7 +760,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -771,7 +783,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -786,10 +798,10 @@
         <v>70</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
@@ -798,7 +810,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -821,7 +833,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -844,7 +856,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -867,10 +879,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>69</v>
@@ -890,10 +902,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>70</v>
@@ -913,10 +925,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>71</v>
@@ -936,10 +948,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>72</v>
@@ -959,10 +971,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>73</v>
@@ -974,10 +986,10 @@
         <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
@@ -986,10 +998,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>74</v>
@@ -1009,10 +1021,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
         <v>75</v>
@@ -1032,10 +1044,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
         <v>76</v>
@@ -1055,10 +1067,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
         <v>77</v>
@@ -1070,10 +1082,10 @@
         <v>70</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
@@ -1082,10 +1094,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>78</v>
@@ -1105,10 +1117,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>79</v>
@@ -1128,10 +1140,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>80</v>
@@ -1151,10 +1163,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>81</v>
@@ -1174,10 +1186,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>82</v>
@@ -1197,10 +1209,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>83</v>
@@ -1220,10 +1232,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3">
         <v>84</v>
@@ -1243,10 +1255,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3">
         <v>85</v>
@@ -1266,10 +1278,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <v>86</v>
@@ -1289,10 +1301,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>87</v>
@@ -1312,10 +1324,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
         <v>88</v>
@@ -1327,10 +1339,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="0"/>
@@ -1339,10 +1351,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <v>89</v>
@@ -1362,10 +1374,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4">
         <v>90</v>
@@ -1385,10 +1397,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3">
         <v>91</v>
@@ -1408,10 +1420,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>92</v>
@@ -1431,10 +1443,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3">
         <v>93</v>
@@ -1454,10 +1466,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4">
         <v>94</v>
@@ -1477,10 +1489,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3">
         <v>95</v>
@@ -1500,10 +1512,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
         <v>96</v>
@@ -1515,10 +1527,10 @@
         <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
@@ -1527,10 +1539,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3">
         <v>97</v>
@@ -1550,10 +1562,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4">
         <v>98</v>
@@ -1573,10 +1585,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3">
         <v>99</v>
@@ -1596,10 +1608,10 @@
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
@@ -1619,10 +1631,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3">
         <v>85</v>
@@ -1642,10 +1654,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3">
         <v>84</v>
@@ -1665,10 +1677,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3">
         <v>83</v>
@@ -1688,10 +1700,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4">
         <v>82</v>
@@ -1711,10 +1723,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>81</v>
@@ -1734,10 +1746,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3">
         <v>80</v>
@@ -1757,10 +1769,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3">
         <v>79</v>
@@ -1780,10 +1792,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" s="4">
         <v>78</v>
@@ -1803,10 +1815,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>77</v>
@@ -1818,10 +1830,10 @@
         <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="1"/>
@@ -1830,10 +1842,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="3">
         <v>101</v>
@@ -1853,10 +1865,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4">
         <v>102</v>
@@ -1876,10 +1888,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="3">
         <v>103</v>
@@ -1899,10 +1911,10 @@
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="3">
         <v>104</v>
@@ -1922,10 +1934,10 @@
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3">
         <v>105</v>
@@ -1937,10 +1949,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
@@ -1949,10 +1961,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4">
         <v>106</v>
@@ -1972,10 +1984,10 @@
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3">
         <v>107</v>
@@ -1995,10 +2007,10 @@
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" s="3">
         <v>108</v>
@@ -2018,10 +2030,10 @@
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="3">
         <v>109</v>
@@ -2041,10 +2053,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4">
         <v>110</v>
@@ -2064,10 +2076,10 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="3">
         <v>111</v>
@@ -2087,10 +2099,10 @@
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="3">
         <v>112</v>
@@ -2110,10 +2122,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3">
         <v>113</v>
@@ -2133,10 +2145,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4">
         <v>114</v>
@@ -2150,7 +2162,7 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" si="1"/>
@@ -2159,10 +2171,10 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3">
         <v>115</v>
@@ -2182,10 +2194,10 @@
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3">
         <v>116</v>
@@ -2205,10 +2217,10 @@
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="3">
         <v>117</v>
@@ -2228,10 +2240,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4">
         <v>118</v>
@@ -2251,10 +2263,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="3">
         <v>119</v>
@@ -2274,10 +2286,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3">
         <v>120</v>
@@ -2297,10 +2309,10 @@
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3">
         <v>121</v>
@@ -2320,10 +2332,10 @@
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4">
         <v>122</v>
@@ -2343,10 +2355,10 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="3">
         <v>123</v>
@@ -2358,10 +2370,10 @@
         <v>20</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6">
         <f t="shared" si="2"/>
@@ -2370,10 +2382,10 @@
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="3">
         <v>124</v>
@@ -2393,10 +2405,10 @@
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74" s="3">
         <v>125</v>
@@ -2416,10 +2428,10 @@
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="4">
         <v>126</v>
@@ -2439,10 +2451,10 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="3">
         <v>127</v>
@@ -2462,10 +2474,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C77" s="3">
         <v>128</v>
@@ -2485,10 +2497,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78" s="3">
         <v>129</v>
@@ -2508,10 +2520,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C79" s="4">
         <v>130</v>
@@ -2531,10 +2543,10 @@
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C80" s="3">
         <v>131</v>
@@ -2554,10 +2566,10 @@
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C81" s="3">
         <v>132</v>
@@ -2569,10 +2581,10 @@
         <v>20</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="2"/>
@@ -2581,10 +2593,10 @@
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C82" s="3">
         <v>133</v>
@@ -2604,10 +2616,10 @@
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C83" s="4">
         <v>134</v>
@@ -2627,10 +2639,10 @@
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="3">
         <v>135</v>
@@ -2650,10 +2662,10 @@
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="3">
         <v>136</v>
@@ -2673,10 +2685,10 @@
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C86" s="3">
         <v>137</v>
@@ -2696,10 +2708,10 @@
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" s="4">
         <v>138</v>
@@ -2719,10 +2731,10 @@
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" s="3">
         <v>139</v>
@@ -2742,10 +2754,10 @@
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" s="3">
         <v>140</v>
@@ -2765,10 +2777,10 @@
     </row>
     <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3">
         <v>141</v>
@@ -2780,10 +2792,10 @@
         <v>20</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" si="2"/>
@@ -2792,10 +2804,10 @@
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C91" s="4">
         <v>142</v>
@@ -2815,10 +2827,10 @@
     </row>
     <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C92" s="3">
         <v>143</v>
@@ -2838,10 +2850,10 @@
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93" s="3">
         <v>144</v>
@@ -2861,10 +2873,10 @@
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" s="3">
         <v>145</v>
@@ -2884,10 +2896,10 @@
     </row>
     <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C95" s="4">
         <v>146</v>
@@ -2907,10 +2919,10 @@
     </row>
     <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C96" s="3">
         <v>147</v>
@@ -2930,10 +2942,10 @@
     </row>
     <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C97" s="3">
         <v>148</v>
@@ -2954,10 +2966,10 @@
     </row>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C98" s="3">
         <v>149</v>
@@ -2977,10 +2989,10 @@
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C99" s="4">
         <v>150</v>
@@ -3000,10 +3012,10 @@
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C100" s="3">
         <v>28</v>
@@ -3023,10 +3035,10 @@
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C101" s="4">
         <v>27</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C102" s="3">
         <v>26</v>
@@ -3069,10 +3081,10 @@
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C103" s="4">
         <v>25</v>
@@ -3092,10 +3104,10 @@
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C104" s="3">
         <v>24</v>
@@ -3115,10 +3127,10 @@
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C105" s="3">
         <v>23</v>
@@ -3138,10 +3150,10 @@
     </row>
     <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106" s="4">
         <v>22</v>
@@ -3153,10 +3165,10 @@
         <v>70</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H106" s="6">
         <f t="shared" si="3"/>
@@ -3165,10 +3177,10 @@
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C107" s="3">
         <v>21</v>
@@ -3188,10 +3200,10 @@
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C108" s="4">
         <v>20</v>
@@ -3211,10 +3223,10 @@
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C109" s="3">
         <v>19</v>
@@ -3234,10 +3246,10 @@
     </row>
     <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C110" s="3">
         <v>18</v>
@@ -3257,10 +3269,10 @@
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4">
         <v>17</v>
@@ -3280,10 +3292,10 @@
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" s="3">
         <v>16</v>
@@ -3295,10 +3307,10 @@
         <v>70</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H112" s="6">
         <f t="shared" si="3"/>
@@ -3307,10 +3319,10 @@
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" s="4">
         <v>15</v>
@@ -3330,10 +3342,10 @@
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C114" s="3">
         <v>14</v>
@@ -3353,10 +3365,10 @@
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C115" s="3">
         <v>13</v>
@@ -3376,10 +3388,10 @@
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C116" s="4">
         <v>12</v>
@@ -3399,10 +3411,10 @@
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C117" s="3">
         <v>11</v>
@@ -3422,10 +3434,10 @@
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C118" s="4">
         <v>10</v>
@@ -3445,10 +3457,10 @@
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C119" s="3">
         <v>9</v>
@@ -3460,10 +3472,10 @@
         <v>45</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H119" s="6">
         <f t="shared" si="3"/>
@@ -3472,10 +3484,10 @@
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C120" s="3">
         <v>8</v>
@@ -3495,10 +3507,10 @@
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C121" s="4">
         <v>7</v>
@@ -3518,10 +3530,10 @@
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C122" s="3">
         <v>6</v>
@@ -3541,10 +3553,10 @@
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C123" s="3">
         <v>5</v>
@@ -3564,10 +3576,10 @@
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C124" s="4">
         <v>4</v>
@@ -3587,10 +3599,10 @@
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C125" s="3">
         <v>3</v>
@@ -3614,7 +3626,7 @@
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
@@ -3626,10 +3638,10 @@
         <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H126" s="6">
         <f t="shared" si="3"/>
@@ -3642,7 +3654,7 @@
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
@@ -3666,7 +3678,7 @@
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C128" s="3">
         <v>13</v>
@@ -3690,7 +3702,7 @@
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129" s="3">
         <v>14</v>
@@ -3714,7 +3726,7 @@
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C130" s="4">
         <v>15</v>
@@ -3738,7 +3750,7 @@
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C131" s="3">
         <v>16</v>
@@ -3750,10 +3762,10 @@
         <v>70</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H131" s="6">
         <f t="shared" si="5"/>
@@ -3766,7 +3778,7 @@
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C132" s="4">
         <v>17</v>
@@ -3790,7 +3802,7 @@
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C133" s="3">
         <v>18</v>
@@ -3814,7 +3826,7 @@
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C134" s="3">
         <v>19</v>
@@ -3838,7 +3850,7 @@
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C135" s="4">
         <v>20</v>
@@ -3862,7 +3874,7 @@
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C136" s="3">
         <v>21</v>
@@ -3886,7 +3898,7 @@
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C137" s="4">
         <v>22</v>
@@ -3898,10 +3910,10 @@
         <v>70</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H137" s="6">
         <f t="shared" si="5"/>
@@ -3914,7 +3926,7 @@
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3">
         <v>23</v>
@@ -3938,7 +3950,7 @@
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C139" s="3">
         <v>24</v>
@@ -3962,7 +3974,7 @@
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C140" s="4">
         <v>25</v>
@@ -3986,7 +3998,7 @@
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C141" s="3">
         <v>26</v>
@@ -4010,7 +4022,7 @@
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C142" s="4">
         <v>27</v>
@@ -4034,7 +4046,7 @@
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C143" s="3">
         <v>28</v>
@@ -4058,7 +4070,7 @@
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C144" s="3">
         <v>29</v>
@@ -4082,7 +4094,7 @@
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C145" s="4">
         <v>30</v>
@@ -4106,7 +4118,7 @@
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C146" s="3">
         <v>31</v>
@@ -4118,10 +4130,10 @@
         <v>30</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H146" s="6">
         <f t="shared" si="5"/>
@@ -4134,7 +4146,7 @@
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C147" s="4">
         <v>32</v>
@@ -4158,7 +4170,7 @@
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C148" s="3">
         <v>33</v>
@@ -4182,7 +4194,7 @@
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C149" s="3">
         <v>34</v>
@@ -4206,7 +4218,7 @@
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C150" s="4">
         <v>35</v>
@@ -4230,7 +4242,7 @@
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C151" s="3">
         <v>36</v>
@@ -4254,7 +4266,7 @@
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C152" s="3">
         <v>37</v>
@@ -4278,7 +4290,7 @@
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C153" s="4">
         <v>38</v>
@@ -4302,7 +4314,7 @@
         <v>Green</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C154" s="3">
         <v>39</v>
@@ -4314,10 +4326,10 @@
         <v>30</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" s="6">
         <f t="shared" si="5"/>
@@ -4330,7 +4342,7 @@
         <v>Green</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C155" s="3">
         <v>40</v>
@@ -4354,7 +4366,7 @@
         <v>Green</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C156" s="4">
         <v>41</v>
@@ -4378,7 +4390,7 @@
         <v>Green</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C157" s="3">
         <v>42</v>
@@ -4402,7 +4414,7 @@
         <v>Green</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C158" s="3">
         <v>43</v>
@@ -4426,7 +4438,7 @@
         <v>Green</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C159" s="4">
         <v>44</v>
@@ -4450,7 +4462,7 @@
         <v>Green</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C160" s="3">
         <v>45</v>
@@ -4474,7 +4486,7 @@
         <v>Green</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C161" s="3">
         <v>46</v>
@@ -4498,7 +4510,7 @@
         <v>Green</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C162" s="4">
         <v>47</v>
@@ -4522,7 +4534,7 @@
         <v>Green</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C163" s="3">
         <v>48</v>
@@ -4534,10 +4546,10 @@
         <v>30</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" s="6">
         <f t="shared" si="6"/>
@@ -4550,7 +4562,7 @@
         <v>Green</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C164" s="3">
         <v>49</v>
@@ -4574,7 +4586,7 @@
         <v>Green</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C165" s="4">
         <v>50</v>
@@ -4598,7 +4610,7 @@
         <v>Green</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C166" s="3">
         <v>51</v>
@@ -4622,7 +4634,7 @@
         <v>Green</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C167" s="3">
         <v>52</v>
@@ -4646,7 +4658,7 @@
         <v>Green</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C168" s="4">
         <v>53</v>
@@ -4670,7 +4682,7 @@
         <v>Green</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C169" s="3">
         <v>54</v>
@@ -4694,7 +4706,7 @@
         <v>Green</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" s="3">
         <v>55</v>
@@ -4718,7 +4730,7 @@
         <v>Green</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C171" s="4">
         <v>56</v>
@@ -4742,7 +4754,7 @@
         <v>Green</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C172" s="3">
         <v>57</v>
@@ -4754,10 +4766,10 @@
         <v>30</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" s="6">
         <f t="shared" si="6"/>
@@ -4770,7 +4782,7 @@
         <v>Green</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C173" s="3">
         <v>58</v>
@@ -4782,7 +4794,7 @@
         <v>30</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="6">
@@ -4802,7 +4814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -4821,36 +4833,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7">
         <v>9</v>
@@ -4862,7 +4874,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="7">
         <f>D2*(1/(E2*1000/(60*60)))</f>
@@ -4871,10 +4883,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>8</v>
@@ -4892,10 +4904,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7">
         <v>7</v>
@@ -4907,10 +4919,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4" si="0">D4*(1/(E4*1000/(60*60)))</f>
@@ -4919,10 +4931,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -4936,10 +4948,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -4953,10 +4965,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -4970,10 +4982,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4987,10 +4999,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -5004,10 +5016,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -5021,10 +5033,10 @@
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <v>16</v>
@@ -5036,18 +5048,18 @@
         <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10">
         <v>17</v>
@@ -5063,10 +5075,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8">
         <v>18</v>
@@ -5082,10 +5094,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8">
         <v>19</v>
@@ -5101,10 +5113,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10">
         <v>20</v>
@@ -5120,10 +5132,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
         <v>21</v>
@@ -5135,18 +5147,18 @@
         <v>55</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10">
         <v>22</v>
@@ -5161,10 +5173,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8">
         <v>23</v>
@@ -5179,10 +5191,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8">
         <v>24</v>
@@ -5197,10 +5209,10 @@
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10">
         <v>25</v>
@@ -5212,18 +5224,18 @@
         <v>70</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8">
         <v>26</v>
@@ -5238,10 +5250,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10">
         <v>27</v>
@@ -5256,10 +5268,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8">
         <v>28</v>
@@ -5274,10 +5286,10 @@
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8">
         <v>29</v>
@@ -5292,10 +5304,10 @@
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="10">
         <v>30</v>
@@ -5310,10 +5322,10 @@
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="8">
         <v>31</v>
@@ -5328,10 +5340,10 @@
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10">
         <v>32</v>
@@ -5346,10 +5358,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8">
         <v>33</v>
@@ -5364,10 +5376,10 @@
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8">
         <v>34</v>
@@ -5382,10 +5394,10 @@
     </row>
     <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="10">
         <v>35</v>
@@ -5397,18 +5409,18 @@
         <v>70</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>36</v>
@@ -5423,10 +5435,10 @@
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8">
         <v>37</v>
@@ -5441,10 +5453,10 @@
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="10">
         <v>38</v>
@@ -5459,10 +5471,10 @@
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="8">
         <v>39</v>
@@ -5477,10 +5489,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="8">
         <v>40</v>
@@ -5495,10 +5507,10 @@
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="10">
         <v>41</v>
@@ -5513,10 +5525,10 @@
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="8">
         <v>42</v>
@@ -5531,10 +5543,10 @@
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="8">
         <v>43</v>
@@ -5549,10 +5561,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="10">
         <v>44</v>
@@ -5567,10 +5579,10 @@
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="8">
         <v>45</v>
@@ -5582,18 +5594,18 @@
         <v>70</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>46</v>
@@ -5608,10 +5620,10 @@
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="10">
         <v>47</v>
@@ -5626,10 +5638,10 @@
     </row>
     <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="8">
         <v>48</v>
@@ -5641,18 +5653,18 @@
         <v>70</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="8">
         <v>49</v>
@@ -5667,10 +5679,10 @@
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="10">
         <v>50</v>
@@ -5685,10 +5697,10 @@
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="8">
         <v>51</v>
@@ -5703,10 +5715,10 @@
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="8">
         <v>52</v>
@@ -5721,10 +5733,10 @@
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="10">
         <v>53</v>
@@ -5739,10 +5751,10 @@
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="8">
         <v>54</v>
@@ -5757,7 +5769,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>0</v>
@@ -5775,7 +5787,7 @@
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>0</v>
@@ -5793,7 +5805,7 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>0</v>
@@ -5811,10 +5823,10 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8">
         <v>58</v>
@@ -5829,10 +5841,10 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="10">
         <v>59</v>
@@ -5847,10 +5859,10 @@
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="8">
         <v>60</v>
@@ -5862,18 +5874,18 @@
         <v>55</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" s="8">
         <v>61</v>
@@ -5888,10 +5900,10 @@
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" s="10">
         <v>62</v>
@@ -5906,10 +5918,10 @@
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" s="8">
         <v>63</v>
@@ -5924,10 +5936,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="8">
         <v>64</v>
@@ -5942,10 +5954,10 @@
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" s="10">
         <v>65</v>
@@ -5960,10 +5972,10 @@
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="8">
         <v>66</v>
@@ -5978,10 +5990,10 @@
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" s="8">
         <v>52</v>
@@ -5996,10 +6008,10 @@
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="8">
         <v>51</v>
@@ -6014,10 +6026,10 @@
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="10">
         <v>50</v>
@@ -6032,10 +6044,10 @@
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" s="8">
         <v>49</v>
@@ -6050,10 +6062,10 @@
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" s="8">
         <v>48</v>
@@ -6065,15 +6077,15 @@
         <v>70</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" s="10">
         <v>47</v>
@@ -6088,10 +6100,10 @@
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" s="8">
         <v>46</v>
@@ -6106,10 +6118,10 @@
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C69" s="8">
         <v>45</v>
@@ -6121,15 +6133,15 @@
         <v>70</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" s="10">
         <v>44</v>
@@ -6141,15 +6153,15 @@
         <v>70</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8">
         <v>67</v>
@@ -6164,10 +6176,10 @@
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C72" s="10">
         <v>68</v>
@@ -6182,10 +6194,10 @@
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C73" s="8">
         <v>69</v>
@@ -6200,10 +6212,10 @@
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C74" s="8">
         <v>70</v>
@@ -6218,10 +6230,10 @@
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" s="10">
         <v>71</v>
@@ -6236,10 +6248,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" s="10">
         <v>38</v>
@@ -6254,10 +6266,10 @@
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" s="8">
         <v>37</v>
@@ -6276,7 +6288,7 @@
         <v>Red</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" s="8">
         <v>36</v>
@@ -6295,7 +6307,7 @@
         <v>Red</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" s="10">
         <v>35</v>
@@ -6307,7 +6319,7 @@
         <v>70</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6316,7 +6328,7 @@
         <v>Red</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C80" s="8">
         <v>34</v>
@@ -6335,7 +6347,7 @@
         <v>Red</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" s="8">
         <v>33</v>
@@ -6354,7 +6366,7 @@
         <v>Red</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82" s="8">
         <v>72</v>
@@ -6373,7 +6385,7 @@
         <v>Red</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C83" s="8">
         <v>73</v>
@@ -6392,7 +6404,7 @@
         <v>Red</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" s="10">
         <v>74</v>
@@ -6411,7 +6423,7 @@
         <v>Red</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" s="8">
         <v>75</v>
@@ -6430,7 +6442,7 @@
         <v>Red</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C86" s="8">
         <v>76</v>
@@ -6449,7 +6461,7 @@
         <v>Red</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" s="10">
         <v>27</v>
@@ -6468,7 +6480,7 @@
         <v>Red</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C88" s="8">
         <v>26</v>
@@ -6487,7 +6499,7 @@
         <v>Red</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" s="10">
         <v>25</v>
@@ -6499,7 +6511,7 @@
         <v>70</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6508,7 +6520,7 @@
         <v>Red</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C90" s="8">
         <v>24</v>
@@ -6527,7 +6539,7 @@
         <v>Red</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C91" s="8">
         <v>23</v>
@@ -6546,7 +6558,7 @@
         <v>Red</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C92" s="10">
         <v>22</v>
@@ -6565,7 +6577,7 @@
         <v>Red</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C93" s="8">
         <v>21</v>
@@ -6577,7 +6589,7 @@
         <v>55</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6586,7 +6598,7 @@
         <v>Red</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="10">
         <v>20</v>
@@ -6605,7 +6617,7 @@
         <v>Red</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C95" s="8">
         <v>19</v>
@@ -6624,7 +6636,7 @@
         <v>Red</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C96" s="8">
         <v>18</v>
@@ -6643,7 +6655,7 @@
         <v>Red</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C97" s="10">
         <v>17</v>
@@ -6662,7 +6674,7 @@
         <v>Red</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C98" s="8">
         <v>16</v>
@@ -6674,15 +6686,15 @@
         <v>40</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C99" s="10">
         <v>1</v>
@@ -6701,7 +6713,7 @@
         <v>Red</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C100" s="8">
         <v>2</v>
@@ -6720,7 +6732,7 @@
         <v>Red</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C101" s="8">
         <v>3</v>
@@ -6739,7 +6751,7 @@
         <v>Red</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C102" s="10">
         <v>4</v>
@@ -6758,7 +6770,7 @@
         <v>Red</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C103" s="8">
         <v>5</v>
@@ -6777,7 +6789,7 @@
         <v>Red</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C104" s="8">
         <v>6</v>
@@ -6796,7 +6808,7 @@
         <v>Red</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" s="10">
         <v>7</v>
@@ -6808,7 +6820,7 @@
         <v>40</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6817,7 +6829,7 @@
         <v>Red</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C106" s="8">
         <v>8</v>
@@ -6829,7 +6841,7 @@
         <v>40</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/CTC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\CTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E64775EF-75DB-4DC2-9D3A-2FF9B5C48937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2252507-E936-4685-B000-8B36B8637607}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199C48F8-A0F7-4272-B15C-3892C7C73981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="72">
   <si>
     <t>K</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>STATION; CENTRAL OUT</t>
+  </si>
+  <si>
+    <t>STATION; GLENBURY IN</t>
+  </si>
+  <si>
+    <t>yard --&gt; shj</t>
+  </si>
+  <si>
+    <t>shj --&gt; yard</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,24 +724,24 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>63</v>
       </c>
       <c r="D2" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
-        <f>'Red Line'!H2</f>
-        <v>6.75</v>
+        <f t="shared" ref="H2:H32" si="0">D2*(1/(E2*1000/(60*60)))</f>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -743,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -754,7 +763,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H33" si="0">D3*(1/(E3*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -765,20 +774,24 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>64</v>
+      <c r="C4" s="4">
+        <v>65</v>
       </c>
       <c r="D4" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3">
         <v>70</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -788,8 +801,8 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <v>65</v>
+      <c r="C5" s="3">
+        <v>66</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -797,12 +810,8 @@
       <c r="E5" s="3">
         <v>70</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>10.285714285714286</v>
@@ -816,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>10.285714285714286</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -838,8 +847,8 @@
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>67</v>
+      <c r="C7" s="4">
+        <v>68</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
@@ -859,10 +868,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>69</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -885,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
@@ -907,8 +916,8 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
-        <v>70</v>
+      <c r="C10" s="4">
+        <v>71</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
@@ -930,8 +939,8 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
-        <v>71</v>
+      <c r="C11" s="3">
+        <v>72</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
@@ -954,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
@@ -962,8 +971,12 @@
       <c r="E12" s="3">
         <v>40</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -974,10 +987,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>74</v>
       </c>
       <c r="D13" s="3">
         <v>100</v>
@@ -985,12 +998,8 @@
       <c r="E13" s="3">
         <v>40</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1003,8 +1012,8 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
-        <v>74</v>
+      <c r="C14" s="3">
+        <v>75</v>
       </c>
       <c r="D14" s="3">
         <v>100</v>
@@ -1027,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
@@ -1047,22 +1056,26 @@
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E16" s="3">
-        <v>40</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1072,8 +1085,8 @@
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3">
-        <v>77</v>
+      <c r="C17" s="4">
+        <v>78</v>
       </c>
       <c r="D17" s="3">
         <v>300</v>
@@ -1081,12 +1094,8 @@
       <c r="E17" s="3">
         <v>70</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
@@ -1099,8 +1108,8 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
-        <v>78</v>
+      <c r="C18" s="3">
+        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>300</v>
@@ -1123,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3">
         <v>300</v>
@@ -1146,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3">
         <v>300</v>
@@ -1168,8 +1177,8 @@
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3">
-        <v>81</v>
+      <c r="C21" s="4">
+        <v>82</v>
       </c>
       <c r="D21" s="3">
         <v>300</v>
@@ -1191,8 +1200,8 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4">
-        <v>82</v>
+      <c r="C22" s="3">
+        <v>83</v>
       </c>
       <c r="D22" s="3">
         <v>300</v>
@@ -1215,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="3">
         <v>300</v>
@@ -1238,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3">
         <v>300</v>
@@ -1258,22 +1267,22 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
-        <v>85</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
+        <v>86</v>
       </c>
       <c r="D25" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6">
         <f t="shared" si="0"/>
-        <v>15.428571428571431</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1283,11 +1292,11 @@
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4">
-        <v>86</v>
+      <c r="C26" s="3">
+        <v>87</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>86.6</v>
       </c>
       <c r="E26" s="3">
         <v>25</v>
@@ -1296,7 +1305,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="6">
         <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
+        <v>12.470399999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1307,19 +1316,23 @@
         <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3">
-        <v>86.6</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>25</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" s="6">
         <f t="shared" si="0"/>
-        <v>12.470399999999998</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1327,26 +1340,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
         <v>25</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="6">
         <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1356,8 +1365,8 @@
       <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="3">
-        <v>89</v>
+      <c r="C29" s="4">
+        <v>90</v>
       </c>
       <c r="D29" s="3">
         <v>75</v>
@@ -1379,8 +1388,8 @@
       <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="4">
-        <v>90</v>
+      <c r="C30" s="3">
+        <v>91</v>
       </c>
       <c r="D30" s="3">
         <v>75</v>
@@ -1403,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="3">
         <v>75</v>
@@ -1426,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="3">
         <v>75</v>
@@ -1448,8 +1457,8 @@
       <c r="B33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="3">
-        <v>93</v>
+      <c r="C33" s="4">
+        <v>94</v>
       </c>
       <c r="D33" s="3">
         <v>75</v>
@@ -1460,7 +1469,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H33:H64" si="1">D33*(1/(E33*1000/(60*60)))</f>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1471,8 +1480,8 @@
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="4">
-        <v>94</v>
+      <c r="C34" s="3">
+        <v>95</v>
       </c>
       <c r="D34" s="3">
         <v>75</v>
@@ -1483,7 +1492,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H65" si="1">D34*(1/(E34*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1495,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="3">
         <v>75</v>
@@ -1503,8 +1512,12 @@
       <c r="E35" s="3">
         <v>25</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>10.799999999999999</v>
@@ -1518,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="3">
         <v>75</v>
@@ -1526,12 +1539,8 @@
       <c r="E36" s="3">
         <v>25</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>10.799999999999999</v>
@@ -1542,10 +1551,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="3">
-        <v>97</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="4">
+        <v>98</v>
       </c>
       <c r="D37" s="3">
         <v>75</v>
@@ -1567,8 +1576,8 @@
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="4">
-        <v>98</v>
+      <c r="C38" s="3">
+        <v>99</v>
       </c>
       <c r="D38" s="3">
         <v>75</v>
@@ -1591,7 +1600,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3">
         <v>75</v>
@@ -1611,22 +1620,22 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D40" s="3">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="E40" s="3">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6">
         <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1637,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3">
         <v>300</v>
@@ -1660,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="3">
         <v>300</v>
@@ -1682,8 +1691,8 @@
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="3">
-        <v>83</v>
+      <c r="C43" s="4">
+        <v>82</v>
       </c>
       <c r="D43" s="3">
         <v>300</v>
@@ -1705,8 +1714,8 @@
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="4">
-        <v>82</v>
+      <c r="C44" s="3">
+        <v>81</v>
       </c>
       <c r="D44" s="3">
         <v>300</v>
@@ -1729,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="3">
         <v>300</v>
@@ -1752,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="3">
         <v>300</v>
@@ -1774,8 +1783,8 @@
       <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="3">
-        <v>79</v>
+      <c r="C47" s="4">
+        <v>78</v>
       </c>
       <c r="D47" s="3">
         <v>300</v>
@@ -1797,8 +1806,8 @@
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="4">
-        <v>78</v>
+      <c r="C48" s="3">
+        <v>77</v>
       </c>
       <c r="D48" s="3">
         <v>300</v>
@@ -1806,8 +1815,12 @@
       <c r="E48" s="3">
         <v>70</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H48" s="6">
         <f t="shared" si="1"/>
         <v>15.428571428571431</v>
@@ -1818,26 +1831,22 @@
         <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C49" s="3">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="E49" s="3">
-        <v>70</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="6">
         <f t="shared" si="1"/>
-        <v>15.428571428571431</v>
+        <v>4.8461538461538467</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1845,22 +1854,22 @@
         <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="3">
-        <v>101</v>
+        <v>21</v>
+      </c>
+      <c r="C50" s="4">
+        <v>102</v>
       </c>
       <c r="D50" s="3">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E50" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="6">
         <f t="shared" si="1"/>
-        <v>4.8461538461538467</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1870,8 +1879,8 @@
       <c r="B51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="4">
-        <v>102</v>
+      <c r="C51" s="3">
+        <v>103</v>
       </c>
       <c r="D51" s="3">
         <v>100</v>
@@ -1894,10 +1903,10 @@
         <v>21</v>
       </c>
       <c r="C52" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E52" s="3">
         <v>28</v>
@@ -1906,7 +1915,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="6">
         <f t="shared" si="1"/>
-        <v>12.857142857142859</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1914,22 +1923,26 @@
         <v>36</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D53" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E53" s="3">
         <v>28</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
-        <v>10.285714285714286</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1939,8 +1952,8 @@
       <c r="B54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="3">
-        <v>105</v>
+      <c r="C54" s="4">
+        <v>106</v>
       </c>
       <c r="D54" s="3">
         <v>100</v>
@@ -1948,12 +1961,8 @@
       <c r="E54" s="3">
         <v>28</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
         <v>12.857142857142859</v>
@@ -1966,11 +1975,11 @@
       <c r="B55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="4">
-        <v>106</v>
+      <c r="C55" s="3">
+        <v>107</v>
       </c>
       <c r="D55" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E55" s="3">
         <v>28</v>
@@ -1979,7 +1988,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="6">
         <f t="shared" si="1"/>
-        <v>12.857142857142859</v>
+        <v>11.571428571428573</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1990,10 +1999,10 @@
         <v>22</v>
       </c>
       <c r="C56" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D56" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E56" s="3">
         <v>28</v>
@@ -2002,7 +2011,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>11.571428571428573</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2013,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D57" s="3">
         <v>100</v>
@@ -2033,22 +2042,22 @@
         <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="3">
-        <v>109</v>
+        <v>23</v>
+      </c>
+      <c r="C58" s="4">
+        <v>110</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="6">
         <f t="shared" si="1"/>
-        <v>12.857142857142859</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2058,8 +2067,8 @@
       <c r="B59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="4">
-        <v>110</v>
+      <c r="C59" s="3">
+        <v>111</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
@@ -2082,7 +2091,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D60" s="3">
         <v>100</v>
@@ -2105,7 +2114,7 @@
         <v>23</v>
       </c>
       <c r="C61" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61" s="3">
         <v>100</v>
@@ -2127,20 +2136,25 @@
       <c r="B62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="3">
-        <v>113</v>
+      <c r="C62" s="4">
+        <v>114</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <f>100+62</f>
+        <v>162</v>
       </c>
       <c r="E62" s="3">
         <v>30</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="F62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H62" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19.439999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2150,23 +2164,20 @@
       <c r="B63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="4">
-        <v>114</v>
+      <c r="C63" s="3">
+        <v>115</v>
       </c>
       <c r="D63" s="3">
-        <f>100+62</f>
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E63" s="3">
         <v>30</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="6">
         <f t="shared" si="1"/>
-        <v>19.439999999999998</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2177,7 +2188,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="3">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D64" s="3">
         <v>100</v>
@@ -2197,21 +2208,21 @@
         <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E65" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H65:H96" si="2">D65*(1/(E65*1000/(60*60)))</f>
         <v>12</v>
       </c>
     </row>
@@ -2222,8 +2233,8 @@
       <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="3">
-        <v>117</v>
+      <c r="C66" s="4">
+        <v>118</v>
       </c>
       <c r="D66" s="3">
         <v>50</v>
@@ -2234,7 +2245,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H97" si="2">D66*(1/(E66*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -2245,11 +2256,11 @@
       <c r="B67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="4">
-        <v>118</v>
+      <c r="C67" s="3">
+        <v>119</v>
       </c>
       <c r="D67" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E67" s="3">
         <v>15</v>
@@ -2258,7 +2269,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2269,10 +2280,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E68" s="3">
         <v>15</v>
@@ -2281,7 +2292,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="6">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2292,7 +2303,7 @@
         <v>24</v>
       </c>
       <c r="C69" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D69" s="3">
         <v>50</v>
@@ -2312,22 +2323,22 @@
         <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="3">
-        <v>121</v>
+        <v>25</v>
+      </c>
+      <c r="C70" s="4">
+        <v>122</v>
       </c>
       <c r="D70" s="3">
         <v>50</v>
       </c>
       <c r="E70" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2337,8 +2348,8 @@
       <c r="B71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="4">
-        <v>122</v>
+      <c r="C71" s="3">
+        <v>123</v>
       </c>
       <c r="D71" s="3">
         <v>50</v>
@@ -2346,8 +2357,12 @@
       <c r="E71" s="3">
         <v>20</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H71" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2361,7 +2376,7 @@
         <v>25</v>
       </c>
       <c r="C72" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D72" s="3">
         <v>50</v>
@@ -2369,12 +2384,8 @@
       <c r="E72" s="3">
         <v>20</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2388,7 +2399,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D73" s="3">
         <v>50</v>
@@ -2410,8 +2421,8 @@
       <c r="B74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="3">
-        <v>125</v>
+      <c r="C74" s="4">
+        <v>126</v>
       </c>
       <c r="D74" s="3">
         <v>50</v>
@@ -2433,8 +2444,8 @@
       <c r="B75" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="4">
-        <v>126</v>
+      <c r="C75" s="3">
+        <v>127</v>
       </c>
       <c r="D75" s="3">
         <v>50</v>
@@ -2457,7 +2468,7 @@
         <v>25</v>
       </c>
       <c r="C76" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D76" s="3">
         <v>50</v>
@@ -2480,7 +2491,7 @@
         <v>25</v>
       </c>
       <c r="C77" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D77" s="3">
         <v>50</v>
@@ -2502,8 +2513,8 @@
       <c r="B78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="3">
-        <v>129</v>
+      <c r="C78" s="4">
+        <v>130</v>
       </c>
       <c r="D78" s="3">
         <v>50</v>
@@ -2525,8 +2536,8 @@
       <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="4">
-        <v>130</v>
+      <c r="C79" s="3">
+        <v>131</v>
       </c>
       <c r="D79" s="3">
         <v>50</v>
@@ -2549,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="C80" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D80" s="3">
         <v>50</v>
@@ -2557,8 +2568,12 @@
       <c r="E80" s="3">
         <v>20</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2572,7 +2587,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D81" s="3">
         <v>50</v>
@@ -2580,12 +2595,8 @@
       <c r="E81" s="3">
         <v>20</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2598,8 +2609,8 @@
       <c r="B82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="3">
-        <v>133</v>
+      <c r="C82" s="4">
+        <v>134</v>
       </c>
       <c r="D82" s="3">
         <v>50</v>
@@ -2621,8 +2632,8 @@
       <c r="B83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="4">
-        <v>134</v>
+      <c r="C83" s="3">
+        <v>135</v>
       </c>
       <c r="D83" s="3">
         <v>50</v>
@@ -2645,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="C84" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D84" s="3">
         <v>50</v>
@@ -2668,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="C85" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D85" s="3">
         <v>50</v>
@@ -2690,8 +2701,8 @@
       <c r="B86" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="3">
-        <v>137</v>
+      <c r="C86" s="4">
+        <v>138</v>
       </c>
       <c r="D86" s="3">
         <v>50</v>
@@ -2713,8 +2724,8 @@
       <c r="B87" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="4">
-        <v>138</v>
+      <c r="C87" s="3">
+        <v>139</v>
       </c>
       <c r="D87" s="3">
         <v>50</v>
@@ -2737,7 +2748,7 @@
         <v>25</v>
       </c>
       <c r="C88" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D88" s="3">
         <v>50</v>
@@ -2760,7 +2771,7 @@
         <v>25</v>
       </c>
       <c r="C89" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D89" s="3">
         <v>50</v>
@@ -2768,8 +2779,12 @@
       <c r="E89" s="3">
         <v>20</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="F89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H89" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2782,8 +2797,8 @@
       <c r="B90" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="3">
-        <v>141</v>
+      <c r="C90" s="4">
+        <v>142</v>
       </c>
       <c r="D90" s="3">
         <v>50</v>
@@ -2791,12 +2806,8 @@
       <c r="E90" s="3">
         <v>20</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2809,8 +2820,8 @@
       <c r="B91" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="4">
-        <v>142</v>
+      <c r="C91" s="3">
+        <v>143</v>
       </c>
       <c r="D91" s="3">
         <v>50</v>
@@ -2830,10 +2841,10 @@
         <v>36</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C92" s="3">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D92" s="3">
         <v>50</v>
@@ -2856,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="C93" s="3">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D93" s="3">
         <v>50</v>
@@ -2878,8 +2889,8 @@
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="3">
-        <v>145</v>
+      <c r="C94" s="4">
+        <v>146</v>
       </c>
       <c r="D94" s="3">
         <v>50</v>
@@ -2899,10 +2910,10 @@
         <v>36</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="4">
-        <v>146</v>
+        <v>27</v>
+      </c>
+      <c r="C95" s="3">
+        <v>147</v>
       </c>
       <c r="D95" s="3">
         <v>50</v>
@@ -2925,10 +2936,11 @@
         <v>27</v>
       </c>
       <c r="C96" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D96" s="3">
-        <v>50</v>
+        <f>40+144</f>
+        <v>184</v>
       </c>
       <c r="E96" s="3">
         <v>20</v>
@@ -2937,7 +2949,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2948,11 +2960,10 @@
         <v>27</v>
       </c>
       <c r="C97" s="3">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D97" s="3">
-        <f>40+144</f>
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="E97" s="3">
         <v>20</v>
@@ -2960,8 +2971,8 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="6">
-        <f t="shared" si="2"/>
-        <v>33.119999999999997</v>
+        <f t="shared" ref="H97:H128" si="3">D97*(1/(E97*1000/(60*60)))</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2969,13 +2980,13 @@
         <v>36</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="3">
-        <v>149</v>
+        <v>28</v>
+      </c>
+      <c r="C98" s="4">
+        <v>150</v>
       </c>
       <c r="D98" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E98" s="3">
         <v>20</v>
@@ -2983,8 +2994,8 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6">
-        <f t="shared" ref="H98:H129" si="3">D98*(1/(E98*1000/(60*60)))</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>6.3</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2992,22 +3003,22 @@
         <v>36</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="3">
         <v>28</v>
       </c>
-      <c r="C99" s="4">
-        <v>150</v>
-      </c>
       <c r="D99" s="3">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E99" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="6">
         <f t="shared" si="3"/>
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3017,8 +3028,8 @@
       <c r="B100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="3">
-        <v>28</v>
+      <c r="C100" s="4">
+        <v>27</v>
       </c>
       <c r="D100" s="3">
         <v>50</v>
@@ -3040,20 +3051,20 @@
       <c r="B101" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="4">
-        <v>27</v>
+      <c r="C101" s="3">
+        <v>26</v>
       </c>
       <c r="D101" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3063,11 +3074,11 @@
       <c r="B102" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="3">
-        <v>26</v>
+      <c r="C102" s="4">
+        <v>25</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>70</v>
@@ -3076,7 +3087,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="6">
         <f t="shared" si="3"/>
-        <v>5.1428571428571432</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3086,11 +3097,11 @@
       <c r="B103" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="4">
-        <v>25</v>
+      <c r="C103" s="3">
+        <v>24</v>
       </c>
       <c r="D103" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E103" s="3">
         <v>70</v>
@@ -3099,7 +3110,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="6">
         <f t="shared" si="3"/>
-        <v>10.285714285714286</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3110,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="C104" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" s="3">
         <v>300</v>
@@ -3132,8 +3143,8 @@
       <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="3">
-        <v>23</v>
+      <c r="C105" s="4">
+        <v>22</v>
       </c>
       <c r="D105" s="3">
         <v>300</v>
@@ -3141,8 +3152,12 @@
       <c r="E105" s="3">
         <v>70</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="F105" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H105" s="6">
         <f t="shared" si="3"/>
         <v>15.428571428571431</v>
@@ -3155,8 +3170,8 @@
       <c r="B106" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="4">
-        <v>22</v>
+      <c r="C106" s="3">
+        <v>21</v>
       </c>
       <c r="D106" s="3">
         <v>300</v>
@@ -3164,12 +3179,8 @@
       <c r="E106" s="3">
         <v>70</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="6">
         <f t="shared" si="3"/>
         <v>15.428571428571431</v>
@@ -3180,22 +3191,22 @@
         <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="3">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C107" s="4">
+        <v>20</v>
       </c>
       <c r="D107" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E107" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="6">
         <f t="shared" si="3"/>
-        <v>15.428571428571431</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3205,8 +3216,8 @@
       <c r="B108" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="4">
-        <v>20</v>
+      <c r="C108" s="3">
+        <v>19</v>
       </c>
       <c r="D108" s="3">
         <v>150</v>
@@ -3214,7 +3225,7 @@
       <c r="E108" s="3">
         <v>60</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="3"/>
       <c r="H108" s="6">
         <f t="shared" si="3"/>
@@ -3229,7 +3240,7 @@
         <v>31</v>
       </c>
       <c r="C109" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" s="3">
         <v>150</v>
@@ -3237,7 +3248,7 @@
       <c r="E109" s="3">
         <v>60</v>
       </c>
-      <c r="F109" s="5"/>
+      <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="6">
         <f t="shared" si="3"/>
@@ -3251,8 +3262,8 @@
       <c r="B110" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="3">
-        <v>18</v>
+      <c r="C110" s="4">
+        <v>17</v>
       </c>
       <c r="D110" s="3">
         <v>150</v>
@@ -3272,22 +3283,26 @@
         <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="4">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C111" s="3">
+        <v>16</v>
       </c>
       <c r="D111" s="3">
         <v>150</v>
       </c>
       <c r="E111" s="3">
-        <v>60</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H111" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3297,8 +3312,8 @@
       <c r="B112" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C112" s="3">
-        <v>16</v>
+      <c r="C112" s="4">
+        <v>15</v>
       </c>
       <c r="D112" s="3">
         <v>150</v>
@@ -3306,12 +3321,8 @@
       <c r="E112" s="3">
         <v>70</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="6">
         <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
@@ -3324,8 +3335,8 @@
       <c r="B113" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="4">
-        <v>15</v>
+      <c r="C113" s="3">
+        <v>14</v>
       </c>
       <c r="D113" s="3">
         <v>150</v>
@@ -3348,7 +3359,7 @@
         <v>32</v>
       </c>
       <c r="C114" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="3">
         <v>150</v>
@@ -3368,22 +3379,22 @@
         <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" s="3">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C115" s="4">
+        <v>12</v>
       </c>
       <c r="D115" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E115" s="3">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="6">
         <f t="shared" si="3"/>
-        <v>7.7142857142857153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3393,8 +3404,8 @@
       <c r="B116" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="4">
-        <v>12</v>
+      <c r="C116" s="3">
+        <v>11</v>
       </c>
       <c r="D116" s="3">
         <v>100</v>
@@ -3416,8 +3427,8 @@
       <c r="B117" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="3">
-        <v>11</v>
+      <c r="C117" s="4">
+        <v>10</v>
       </c>
       <c r="D117" s="3">
         <v>100</v>
@@ -3439,8 +3450,8 @@
       <c r="B118" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C118" s="4">
-        <v>10</v>
+      <c r="C118" s="3">
+        <v>9</v>
       </c>
       <c r="D118" s="3">
         <v>100</v>
@@ -3448,8 +3459,12 @@
       <c r="E118" s="3">
         <v>45</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="F118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H118" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3463,7 +3478,7 @@
         <v>33</v>
       </c>
       <c r="C119" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" s="3">
         <v>100</v>
@@ -3471,12 +3486,8 @@
       <c r="E119" s="3">
         <v>45</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3489,8 +3500,8 @@
       <c r="B120" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="3">
-        <v>8</v>
+      <c r="C120" s="4">
+        <v>7</v>
       </c>
       <c r="D120" s="3">
         <v>100</v>
@@ -3498,7 +3509,7 @@
       <c r="E120" s="3">
         <v>45</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="3"/>
       <c r="H120" s="6">
         <f t="shared" si="3"/>
@@ -3510,10 +3521,10 @@
         <v>36</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C121" s="4">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C121" s="3">
+        <v>6</v>
       </c>
       <c r="D121" s="3">
         <v>100</v>
@@ -3521,7 +3532,7 @@
       <c r="E121" s="3">
         <v>45</v>
       </c>
-      <c r="F121" s="5"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="6">
         <f t="shared" si="3"/>
@@ -3536,7 +3547,7 @@
         <v>35</v>
       </c>
       <c r="C122" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122" s="3">
         <v>100</v>
@@ -3558,8 +3569,8 @@
       <c r="B123" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="3">
-        <v>5</v>
+      <c r="C123" s="4">
+        <v>4</v>
       </c>
       <c r="D123" s="3">
         <v>100</v>
@@ -3579,10 +3590,10 @@
         <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="4">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
       </c>
       <c r="D124" s="3">
         <v>100</v>
@@ -3598,14 +3609,15 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>36</v>
+      <c r="A125" s="3" t="str">
+        <f>A124</f>
+        <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" s="3">
         <v>100</v>
@@ -3613,8 +3625,12 @@
       <c r="E125" s="3">
         <v>45</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="F125" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3622,14 +3638,14 @@
     </row>
     <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
-        <f>A125</f>
+        <f t="shared" ref="A126:A172" si="4">A125</f>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="3">
-        <v>2</v>
+      <c r="C126" s="4">
+        <v>1</v>
       </c>
       <c r="D126" s="3">
         <v>100</v>
@@ -3637,12 +3653,8 @@
       <c r="E126" s="3">
         <v>45</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
       <c r="H126" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3650,26 +3662,26 @@
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
-        <f t="shared" ref="A127:A173" si="4">A126</f>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="4">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C127" s="3">
+        <v>13</v>
       </c>
       <c r="D127" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E127" s="3">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3681,7 +3693,7 @@
         <v>32</v>
       </c>
       <c r="C128" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D128" s="3">
         <v>150</v>
@@ -3704,8 +3716,8 @@
       <c r="B129" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="3">
-        <v>14</v>
+      <c r="C129" s="4">
+        <v>15</v>
       </c>
       <c r="D129" s="3">
         <v>150</v>
@@ -3716,7 +3728,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H129:H160" si="5">D129*(1/(E129*1000/(60*60)))</f>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3728,8 +3740,8 @@
       <c r="B130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C130" s="4">
-        <v>15</v>
+      <c r="C130" s="3">
+        <v>16</v>
       </c>
       <c r="D130" s="3">
         <v>150</v>
@@ -3737,10 +3749,14 @@
       <c r="E130" s="3">
         <v>70</v>
       </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="F130" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H130" s="6">
-        <f t="shared" ref="H130:H161" si="5">D130*(1/(E130*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3750,26 +3766,22 @@
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131" s="3">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C131" s="4">
+        <v>17</v>
       </c>
       <c r="D131" s="3">
         <v>150</v>
       </c>
       <c r="E131" s="3">
-        <v>70</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="6">
         <f t="shared" si="5"/>
-        <v>7.7142857142857153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3780,8 +3792,8 @@
       <c r="B132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="4">
-        <v>17</v>
+      <c r="C132" s="3">
+        <v>18</v>
       </c>
       <c r="D132" s="3">
         <v>150</v>
@@ -3805,7 +3817,7 @@
         <v>31</v>
       </c>
       <c r="C133" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" s="3">
         <v>150</v>
@@ -3813,7 +3825,7 @@
       <c r="E133" s="3">
         <v>60</v>
       </c>
-      <c r="F133" s="3"/>
+      <c r="F133" s="5"/>
       <c r="G133" s="3"/>
       <c r="H133" s="6">
         <f t="shared" si="5"/>
@@ -3828,8 +3840,8 @@
       <c r="B134" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="3">
-        <v>19</v>
+      <c r="C134" s="4">
+        <v>20</v>
       </c>
       <c r="D134" s="3">
         <v>150</v>
@@ -3837,7 +3849,7 @@
       <c r="E134" s="3">
         <v>60</v>
       </c>
-      <c r="F134" s="5"/>
+      <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="6">
         <f t="shared" si="5"/>
@@ -3850,22 +3862,22 @@
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="4">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C135" s="3">
+        <v>21</v>
       </c>
       <c r="D135" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E135" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="6">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3876,8 +3888,8 @@
       <c r="B136" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="3">
-        <v>21</v>
+      <c r="C136" s="4">
+        <v>22</v>
       </c>
       <c r="D136" s="3">
         <v>300</v>
@@ -3885,8 +3897,12 @@
       <c r="E136" s="3">
         <v>70</v>
       </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="F136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H136" s="6">
         <f t="shared" si="5"/>
         <v>15.428571428571431</v>
@@ -3900,8 +3916,8 @@
       <c r="B137" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C137" s="4">
-        <v>22</v>
+      <c r="C137" s="3">
+        <v>23</v>
       </c>
       <c r="D137" s="3">
         <v>300</v>
@@ -3909,12 +3925,8 @@
       <c r="E137" s="3">
         <v>70</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="6">
         <f t="shared" si="5"/>
         <v>15.428571428571431</v>
@@ -3929,7 +3941,7 @@
         <v>29</v>
       </c>
       <c r="C138" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D138" s="3">
         <v>300</v>
@@ -3952,11 +3964,11 @@
       <c r="B139" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C139" s="3">
-        <v>24</v>
+      <c r="C139" s="4">
+        <v>25</v>
       </c>
       <c r="D139" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E139" s="3">
         <v>70</v>
@@ -3965,7 +3977,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="6">
         <f t="shared" si="5"/>
-        <v>15.428571428571431</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3976,11 +3988,11 @@
       <c r="B140" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="4">
-        <v>25</v>
+      <c r="C140" s="3">
+        <v>26</v>
       </c>
       <c r="D140" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E140" s="3">
         <v>70</v>
@@ -3989,7 +4001,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="6">
         <f t="shared" si="5"/>
-        <v>10.285714285714286</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4000,20 +4012,20 @@
       <c r="B141" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C141" s="3">
-        <v>26</v>
+      <c r="C141" s="4">
+        <v>27</v>
       </c>
       <c r="D141" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E141" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="6">
         <f t="shared" si="5"/>
-        <v>5.1428571428571432</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4024,8 +4036,8 @@
       <c r="B142" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="4">
-        <v>27</v>
+      <c r="C142" s="3">
+        <v>28</v>
       </c>
       <c r="D142" s="3">
         <v>50</v>
@@ -4046,10 +4058,10 @@
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" s="3">
         <v>29</v>
-      </c>
-      <c r="C143" s="3">
-        <v>28</v>
       </c>
       <c r="D143" s="3">
         <v>50</v>
@@ -4072,8 +4084,8 @@
       <c r="B144" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C144" s="3">
-        <v>29</v>
+      <c r="C144" s="4">
+        <v>30</v>
       </c>
       <c r="D144" s="3">
         <v>50</v>
@@ -4096,8 +4108,8 @@
       <c r="B145" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C145" s="4">
-        <v>30</v>
+      <c r="C145" s="3">
+        <v>31</v>
       </c>
       <c r="D145" s="3">
         <v>50</v>
@@ -4105,8 +4117,12 @@
       <c r="E145" s="3">
         <v>30</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="F145" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H145" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4120,8 +4136,8 @@
       <c r="B146" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C146" s="3">
-        <v>31</v>
+      <c r="C146" s="4">
+        <v>32</v>
       </c>
       <c r="D146" s="3">
         <v>50</v>
@@ -4129,12 +4145,8 @@
       <c r="E146" s="3">
         <v>30</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4146,10 +4158,10 @@
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C147" s="4">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C147" s="3">
+        <v>33</v>
       </c>
       <c r="D147" s="3">
         <v>50</v>
@@ -4173,7 +4185,7 @@
         <v>41</v>
       </c>
       <c r="C148" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" s="3">
         <v>50</v>
@@ -4196,8 +4208,8 @@
       <c r="B149" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C149" s="3">
-        <v>34</v>
+      <c r="C149" s="4">
+        <v>35</v>
       </c>
       <c r="D149" s="3">
         <v>50</v>
@@ -4218,10 +4230,10 @@
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C150" s="4">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C150" s="3">
+        <v>36</v>
       </c>
       <c r="D150" s="3">
         <v>50</v>
@@ -4238,14 +4250,14 @@
     </row>
     <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>A147</f>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C151" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D151" s="3">
         <v>50</v>
@@ -4262,14 +4274,14 @@
     </row>
     <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="str">
-        <f>A148</f>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C152" s="3">
-        <v>37</v>
+      <c r="C152" s="4">
+        <v>38</v>
       </c>
       <c r="D152" s="3">
         <v>50</v>
@@ -4292,8 +4304,8 @@
       <c r="B153" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C153" s="4">
-        <v>38</v>
+      <c r="C153" s="3">
+        <v>39</v>
       </c>
       <c r="D153" s="3">
         <v>50</v>
@@ -4301,8 +4313,12 @@
       <c r="E153" s="3">
         <v>30</v>
       </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+      <c r="F153" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H153" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4317,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="C154" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D154" s="3">
         <v>50</v>
@@ -4325,12 +4341,8 @@
       <c r="E154" s="3">
         <v>30</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
       <c r="H154" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4344,8 +4356,8 @@
       <c r="B155" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C155" s="3">
-        <v>40</v>
+      <c r="C155" s="4">
+        <v>41</v>
       </c>
       <c r="D155" s="3">
         <v>50</v>
@@ -4368,8 +4380,8 @@
       <c r="B156" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C156" s="4">
-        <v>41</v>
+      <c r="C156" s="3">
+        <v>42</v>
       </c>
       <c r="D156" s="3">
         <v>50</v>
@@ -4393,7 +4405,7 @@
         <v>42</v>
       </c>
       <c r="C157" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D157" s="3">
         <v>50</v>
@@ -4416,8 +4428,8 @@
       <c r="B158" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C158" s="3">
-        <v>43</v>
+      <c r="C158" s="4">
+        <v>44</v>
       </c>
       <c r="D158" s="3">
         <v>50</v>
@@ -4440,8 +4452,8 @@
       <c r="B159" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C159" s="4">
-        <v>44</v>
+      <c r="C159" s="3">
+        <v>45</v>
       </c>
       <c r="D159" s="3">
         <v>50</v>
@@ -4465,7 +4477,7 @@
         <v>42</v>
       </c>
       <c r="C160" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D160" s="3">
         <v>50</v>
@@ -4488,8 +4500,8 @@
       <c r="B161" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C161" s="3">
-        <v>46</v>
+      <c r="C161" s="4">
+        <v>47</v>
       </c>
       <c r="D161" s="3">
         <v>50</v>
@@ -4500,7 +4512,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H161:H172" si="6">D161*(1/(E161*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
@@ -4512,8 +4524,8 @@
       <c r="B162" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C162" s="4">
-        <v>47</v>
+      <c r="C162" s="3">
+        <v>48</v>
       </c>
       <c r="D162" s="3">
         <v>50</v>
@@ -4521,10 +4533,14 @@
       <c r="E162" s="3">
         <v>30</v>
       </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
+      <c r="F162" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H162" s="6">
-        <f t="shared" ref="H162:H173" si="6">D162*(1/(E162*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -4537,7 +4553,7 @@
         <v>42</v>
       </c>
       <c r="C163" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D163" s="3">
         <v>50</v>
@@ -4545,12 +4561,8 @@
       <c r="E163" s="3">
         <v>30</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -4564,8 +4576,8 @@
       <c r="B164" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C164" s="3">
-        <v>49</v>
+      <c r="C164" s="4">
+        <v>50</v>
       </c>
       <c r="D164" s="3">
         <v>50</v>
@@ -4588,8 +4600,8 @@
       <c r="B165" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C165" s="4">
-        <v>50</v>
+      <c r="C165" s="3">
+        <v>51</v>
       </c>
       <c r="D165" s="3">
         <v>50</v>
@@ -4613,7 +4625,7 @@
         <v>42</v>
       </c>
       <c r="C166" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D166" s="3">
         <v>50</v>
@@ -4636,8 +4648,8 @@
       <c r="B167" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C167" s="3">
-        <v>52</v>
+      <c r="C167" s="4">
+        <v>53</v>
       </c>
       <c r="D167" s="3">
         <v>50</v>
@@ -4660,8 +4672,8 @@
       <c r="B168" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C168" s="4">
-        <v>53</v>
+      <c r="C168" s="3">
+        <v>54</v>
       </c>
       <c r="D168" s="3">
         <v>50</v>
@@ -4685,7 +4697,7 @@
         <v>42</v>
       </c>
       <c r="C169" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D169" s="3">
         <v>50</v>
@@ -4708,8 +4720,8 @@
       <c r="B170" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C170" s="3">
-        <v>55</v>
+      <c r="C170" s="4">
+        <v>56</v>
       </c>
       <c r="D170" s="3">
         <v>50</v>
@@ -4732,8 +4744,8 @@
       <c r="B171" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C171" s="4">
-        <v>56</v>
+      <c r="C171" s="3">
+        <v>57</v>
       </c>
       <c r="D171" s="3">
         <v>50</v>
@@ -4741,8 +4753,12 @@
       <c r="E171" s="3">
         <v>30</v>
       </c>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="F171" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H171" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -4754,10 +4770,10 @@
         <v>Green</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C172" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D172" s="3">
         <v>50</v>
@@ -4766,45 +4782,17 @@
         <v>30</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G172" s="3"/>
       <c r="H172" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Green</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C173" s="3">
-        <v>58</v>
-      </c>
-      <c r="D173" s="3">
-        <v>50</v>
-      </c>
-      <c r="E173" s="3">
-        <v>30</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="6">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C125:H127">
-    <sortCondition descending="1" ref="C125:C127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C124:H126">
+    <sortCondition descending="1" ref="C124:C126"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4812,26 +4800,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4853,11 +4841,9 @@
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -4876,12 +4862,8 @@
       <c r="F2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="7">
-        <f>D2*(1/(E2*1000/(60*60)))</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -4897,12 +4879,15 @@
       <c r="E3" s="7">
         <v>40</v>
       </c>
-      <c r="H3" s="7">
-        <f>D3*(1/(E3*1000/(60*60)))</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUM(D2:D54) + D55/2 + 16</f>
+        <v>4161.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -4924,12 +4909,11 @@
       <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
-        <f t="shared" ref="H4" si="0">D4*(1/(E4*1000/(60*60)))</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -4946,7 +4930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -4963,7 +4947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -4980,7 +4964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
@@ -4997,7 +4981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -5014,7 +4998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
@@ -5031,7 +5015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -5054,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -5073,7 +5057,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
@@ -5092,7 +5076,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -5111,7 +5095,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -5130,7 +5114,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -5207,7 +5191,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -5392,7 +5376,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -5636,7 +5620,7 @@
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -5857,7 +5841,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>48</v>
       </c>
@@ -6060,7 +6044,7 @@
       </c>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>48</v>
       </c>
@@ -6284,7 +6268,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="str">
-        <f t="shared" ref="A78:A98" si="1">A77</f>
+        <f t="shared" ref="A78:A98" si="0">A77</f>
         <v>Red</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -6301,9 +6285,9 @@
       </c>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -6324,7 +6308,7 @@
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -6343,7 +6327,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -6362,7 +6346,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -6381,7 +6365,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -6400,7 +6384,7 @@
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -6419,7 +6403,7 @@
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -6438,7 +6422,7 @@
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -6457,7 +6441,7 @@
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -6476,7 +6460,7 @@
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -6493,9 +6477,9 @@
       </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -6516,7 +6500,7 @@
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -6535,7 +6519,7 @@
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -6554,7 +6538,7 @@
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -6573,7 +6557,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -6594,7 +6578,7 @@
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -6613,7 +6597,7 @@
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -6632,7 +6616,7 @@
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -6651,7 +6635,7 @@
     </row>
     <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -6668,9 +6652,9 @@
       </c>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -6728,7 +6712,7 @@
     </row>
     <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="str">
-        <f t="shared" ref="A101:A106" si="2">A100</f>
+        <f t="shared" ref="A101:A106" si="1">A100</f>
         <v>Red</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -6747,7 +6731,7 @@
     </row>
     <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -6766,7 +6750,7 @@
     </row>
     <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -6785,7 +6769,7 @@
     </row>
     <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -6804,7 +6788,7 @@
     </row>
     <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -6825,7 +6809,7 @@
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -6840,7 +6824,25 @@
       <c r="E106" s="8">
         <v>40</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="7">
+        <v>9</v>
+      </c>
+      <c r="D107" s="7">
+        <v>75</v>
+      </c>
+      <c r="E107" s="7">
+        <v>40</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>46</v>
       </c>
     </row>

--- a/CTC/Train Paths.xlsx
+++ b/CTC/Train Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\CTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199C48F8-A0F7-4272-B15C-3892C7C73981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DB376-E084-4EE5-9034-916FC73C13ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="70">
   <si>
     <t>K</t>
   </si>
@@ -247,12 +247,6 @@
   </si>
   <si>
     <t>STATION; GLENBURY IN</t>
-  </si>
-  <si>
-    <t>yard --&gt; shj</t>
-  </si>
-  <si>
-    <t>shj --&gt; yard</t>
   </si>
 </sst>
 </file>
@@ -674,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4800,10 +4794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4819,7 +4813,7 @@
     <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4843,7 +4837,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -4863,7 +4857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -4879,15 +4873,8 @@
       <c r="E3" s="7">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="7">
-        <f>SUM(D2:D54) + D55/2 + 16</f>
-        <v>4161.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -4909,11 +4896,8 @@
       <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -4930,7 +4914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -4947,7 +4931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -4964,7 +4948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
@@ -4981,7 +4965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -4998,7 +4982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
@@ -5015,7 +4999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -5038,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -5057,7 +5041,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
@@ -5076,7 +5060,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -5095,7 +5079,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -5114,7 +5098,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
